--- a/data/trans_orig/P45D-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P45D-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>5657</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1986</v>
+        <v>2209</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11729</v>
+        <v>11363</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01232229981842858</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004327096580527977</v>
+        <v>0.004811878047626282</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0255496362022874</v>
+        <v>0.02475064691489019</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>5657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2135</v>
+        <v>2051</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11824</v>
+        <v>11521</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007455431803781795</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002813274937044747</v>
+        <v>0.002702857488055139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01558271082016029</v>
+        <v>0.01518382494703336</v>
       </c>
     </row>
     <row r="5">
@@ -806,19 +806,19 @@
         <v>21602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13630</v>
+        <v>13799</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32281</v>
+        <v>31733</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04705604804402078</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02969072719359287</v>
+        <v>0.03005720011797227</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07031744333774995</v>
+        <v>0.06912240071764603</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -827,19 +827,19 @@
         <v>3069</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8412</v>
+        <v>8396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01023915754374982</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003265168859061397</v>
+        <v>0.003259115889347371</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02806829917720171</v>
+        <v>0.0280151101279274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -848,19 +848,19 @@
         <v>24671</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15742</v>
+        <v>15935</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35577</v>
+        <v>36993</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03251469217581303</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02074717938098503</v>
+        <v>0.02100143349611585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04688811653688039</v>
+        <v>0.04875433495268432</v>
       </c>
     </row>
     <row r="6">
@@ -877,19 +877,19 @@
         <v>52162</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39641</v>
+        <v>40851</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66922</v>
+        <v>68664</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1136233763062861</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08634875144310597</v>
+        <v>0.08898564571558154</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1457748738756244</v>
+        <v>0.1495694574978607</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -898,19 +898,19 @@
         <v>18006</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10704</v>
+        <v>11055</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27598</v>
+        <v>28217</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06008167177714768</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03571597807731467</v>
+        <v>0.0368874860767227</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09208845205568514</v>
+        <v>0.09415708049735927</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>68</v>
@@ -919,19 +919,19 @@
         <v>70168</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55026</v>
+        <v>54980</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>87559</v>
+        <v>86512</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09247631666139558</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07252073035391679</v>
+        <v>0.07246007165077005</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1153967579205786</v>
+        <v>0.1140172291872862</v>
       </c>
     </row>
     <row r="7">
@@ -948,19 +948,19 @@
         <v>192384</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>171612</v>
+        <v>170313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>214724</v>
+        <v>214361</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4190644264872491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3738175024468952</v>
+        <v>0.3709887394730305</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4677274260346075</v>
+        <v>0.4669378201825001</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>119</v>
@@ -969,19 +969,19 @@
         <v>120818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104161</v>
+        <v>103619</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>138229</v>
+        <v>137370</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4031516104937803</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3475687434745767</v>
+        <v>0.3457611553484478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4612466228068894</v>
+        <v>0.4583807359897524</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>303</v>
@@ -990,19 +990,19 @@
         <v>313202</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>286721</v>
+        <v>286473</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>343136</v>
+        <v>342115</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4127794329127745</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3778784358079858</v>
+        <v>0.3775524605865821</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4522298082592727</v>
+        <v>0.4508842316428881</v>
       </c>
     </row>
     <row r="8">
@@ -1019,19 +1019,19 @@
         <v>111189</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94381</v>
+        <v>92608</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>131998</v>
+        <v>129915</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2421999888595544</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2055881559639957</v>
+        <v>0.2017263935575008</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2875280951258042</v>
+        <v>0.2829899915500355</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>88</v>
@@ -1040,19 +1040,19 @@
         <v>93070</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76518</v>
+        <v>77002</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>109649</v>
+        <v>109718</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3105587211200309</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.255329277897425</v>
+        <v>0.2569438879505053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3658807402951028</v>
+        <v>0.3661098556286528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>195</v>
@@ -1061,19 +1061,19 @@
         <v>204259</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>179640</v>
+        <v>179507</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>227620</v>
+        <v>230569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.269199244880152</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2367530828522888</v>
+        <v>0.2365781751898411</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2999884773636388</v>
+        <v>0.3038743771329889</v>
       </c>
     </row>
     <row r="9">
@@ -1090,19 +1090,19 @@
         <v>76085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>60993</v>
+        <v>60947</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>95236</v>
+        <v>94000</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1657338604844611</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.132860071623277</v>
+        <v>0.1327595124185125</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2074496905937774</v>
+        <v>0.2047586166824518</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>64</v>
@@ -1111,19 +1111,19 @@
         <v>64723</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51254</v>
+        <v>51864</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>79553</v>
+        <v>80377</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2159688390652913</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1710277910933343</v>
+        <v>0.1730602492544379</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2654554276736179</v>
+        <v>0.2682054153152428</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>136</v>
@@ -1132,19 +1132,19 @@
         <v>140808</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>120216</v>
+        <v>121338</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>163247</v>
+        <v>166205</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1855748815660831</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1584359944601036</v>
+        <v>0.1599159266872572</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2151488903421405</v>
+        <v>0.2190472976998707</v>
       </c>
     </row>
     <row r="10">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11045</v>
+        <v>10074</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.007633832157359035</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03039640878623702</v>
+        <v>0.02772285818148306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6339</v>
+        <v>5583</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004905801969529631</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01710225234524524</v>
+        <v>0.0150623257417389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1278,19 +1278,19 @@
         <v>4592</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1695</v>
+        <v>1074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12235</v>
+        <v>11715</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.006256236548237805</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002308961531947439</v>
+        <v>0.001463410303642864</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01666733829678513</v>
+        <v>0.01595950327968748</v>
       </c>
     </row>
     <row r="12">
@@ -1307,19 +1307,19 @@
         <v>15763</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8344</v>
+        <v>9121</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25113</v>
+        <v>25748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04338069445490073</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02296196623017302</v>
+        <v>0.02510228551057092</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06911044502832682</v>
+        <v>0.07085752981322205</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1328,19 +1328,19 @@
         <v>11534</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6041</v>
+        <v>6107</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19812</v>
+        <v>20932</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03111561549107475</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01629712375978248</v>
+        <v>0.01647579360721636</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05344732602522372</v>
+        <v>0.05646913193177015</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -1349,19 +1349,19 @@
         <v>27297</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18425</v>
+        <v>18322</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39435</v>
+        <v>39054</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03718709769725794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02510015406997834</v>
+        <v>0.02496037789021087</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05372201647277148</v>
+        <v>0.05320363113810714</v>
       </c>
     </row>
     <row r="13">
@@ -1378,19 +1378,19 @@
         <v>47212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33910</v>
+        <v>35353</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61457</v>
+        <v>62095</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1299279042526213</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09332035294088932</v>
+        <v>0.09729256131025731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1691300171190691</v>
+        <v>0.1708866188524377</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1399,19 +1399,19 @@
         <v>24672</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16188</v>
+        <v>16668</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37032</v>
+        <v>36646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06655845935463338</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04367036710524408</v>
+        <v>0.0449670512207017</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0999025801047058</v>
+        <v>0.09886269936330616</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -1420,19 +1420,19 @@
         <v>71884</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55727</v>
+        <v>55815</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88831</v>
+        <v>90401</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09792771985826262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07591676642006406</v>
+        <v>0.07603660196470578</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1210144094757326</v>
+        <v>0.1231537245302453</v>
       </c>
     </row>
     <row r="14">
@@ -1449,19 +1449,19 @@
         <v>128303</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>109129</v>
+        <v>110093</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146220</v>
+        <v>146951</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3530917989101539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3003239442555897</v>
+        <v>0.3029777006810481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4023999945088458</v>
+        <v>0.4044112687077301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>119</v>
@@ -1470,19 +1470,19 @@
         <v>120835</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>102766</v>
+        <v>102277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139088</v>
+        <v>139293</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3259837005690829</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.277236352665764</v>
+        <v>0.2759184492578395</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3752235794969682</v>
+        <v>0.3757784594701372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>241</v>
@@ -1491,19 +1491,19 @@
         <v>249139</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>222344</v>
+        <v>221073</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>275473</v>
+        <v>275170</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3394028018408072</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3029006178608298</v>
+        <v>0.3011687516750529</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3752783950076434</v>
+        <v>0.3748652650836845</v>
       </c>
     </row>
     <row r="15">
@@ -1520,19 +1520,19 @@
         <v>97071</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>81827</v>
+        <v>81068</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>115715</v>
+        <v>115528</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2671399443511232</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2251872172872921</v>
+        <v>0.2230998217128528</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3184490036549871</v>
+        <v>0.3179332376333885</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>122</v>
@@ -1541,19 +1541,19 @@
         <v>124769</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>108570</v>
+        <v>106302</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>144391</v>
+        <v>142877</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3365965980992858</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2928957111864884</v>
+        <v>0.2867766393034165</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3895317752635838</v>
+        <v>0.3854457014718905</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>218</v>
@@ -1562,19 +1562,19 @@
         <v>221840</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>198994</v>
+        <v>198525</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>248360</v>
+        <v>246469</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3022140361462196</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2710907417574797</v>
+        <v>0.2704514712927518</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3383425796774113</v>
+        <v>0.3357658162905544</v>
       </c>
     </row>
     <row r="16">
@@ -1591,19 +1591,19 @@
         <v>72248</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57034</v>
+        <v>56920</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88686</v>
+        <v>88950</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1988258258738419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1569571982762092</v>
+        <v>0.1566433277609438</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2440635947791536</v>
+        <v>0.2447899131615212</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>85</v>
@@ -1612,19 +1612,19 @@
         <v>87050</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71796</v>
+        <v>70757</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105183</v>
+        <v>102970</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2348398245163935</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.193688391679453</v>
+        <v>0.1908841206508528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2837575498821288</v>
+        <v>0.2777862722762124</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>153</v>
@@ -1633,19 +1633,19 @@
         <v>159298</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>137836</v>
+        <v>138580</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>183550</v>
+        <v>184833</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2170121079092148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1877747117364017</v>
+        <v>0.1887888773876622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2500516536976505</v>
+        <v>0.2517994419360988</v>
       </c>
     </row>
     <row r="17">
@@ -1737,19 +1737,19 @@
         <v>14677</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8074</v>
+        <v>8047</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24918</v>
+        <v>26719</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02763179821402898</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01520049372266137</v>
+        <v>0.01515019669028445</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04691122239920655</v>
+        <v>0.0503005684036194</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>14677</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8614</v>
+        <v>7754</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>25265</v>
+        <v>25581</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02105550050262007</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.012357307414096</v>
+        <v>0.01112294226347148</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0362433953730101</v>
+        <v>0.03669797369345432</v>
       </c>
     </row>
     <row r="19">
@@ -1800,19 +1800,19 @@
         <v>52987</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40472</v>
+        <v>40487</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68590</v>
+        <v>69895</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09975329063206312</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07619278157515821</v>
+        <v>0.07622158744858265</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1291279166400247</v>
+        <v>0.1315842023151606</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1821,19 +1821,19 @@
         <v>7382</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3038</v>
+        <v>3383</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14653</v>
+        <v>14569</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04449695273060721</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01831264795001767</v>
+        <v>0.02039194542532009</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08832068649009391</v>
+        <v>0.08781766740243725</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1842,19 +1842,19 @@
         <v>60369</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45827</v>
+        <v>47571</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76249</v>
+        <v>76561</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08660242272011924</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0657414116415239</v>
+        <v>0.06824257224415051</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1093836580255064</v>
+        <v>0.1098307025852653</v>
       </c>
     </row>
     <row r="20">
@@ -1871,19 +1871,19 @@
         <v>64619</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50800</v>
+        <v>50080</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82145</v>
+        <v>81312</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1216521022666899</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09563577264536759</v>
+        <v>0.09428161069399489</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1546475911724325</v>
+        <v>0.1530778794912213</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1892,19 +1892,19 @@
         <v>8971</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4756</v>
+        <v>4618</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17127</v>
+        <v>15005</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05407356238174517</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0286682596329805</v>
+        <v>0.02783416621083334</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1032366555664548</v>
+        <v>0.09044388320201317</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>73</v>
@@ -1913,19 +1913,19 @@
         <v>73590</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>58339</v>
+        <v>59492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>92195</v>
+        <v>93167</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1055685816161923</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08369049115957161</v>
+        <v>0.08534452482234485</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1322583823298815</v>
+        <v>0.1336533550695961</v>
       </c>
     </row>
     <row r="21">
@@ -1942,19 +1942,19 @@
         <v>175624</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>153865</v>
+        <v>154896</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>197411</v>
+        <v>197208</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3306320200836813</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2896680972495534</v>
+        <v>0.2916083845805414</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3716472908283115</v>
+        <v>0.3712657990527215</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>52</v>
@@ -1963,19 +1963,19 @@
         <v>52471</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40619</v>
+        <v>40260</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>64783</v>
+        <v>64715</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3162711057684158</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2448333196865979</v>
+        <v>0.2426683126985689</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3904865305281204</v>
+        <v>0.3900774344417295</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>223</v>
@@ -1984,19 +1984,19 @@
         <v>228095</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>202356</v>
+        <v>204223</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>251613</v>
+        <v>253589</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3272141589943053</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2902898316728631</v>
+        <v>0.2929689274539932</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3609519882427619</v>
+        <v>0.363786555785292</v>
       </c>
     </row>
     <row r="22">
@@ -2013,19 +2013,19 @@
         <v>143038</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>123783</v>
+        <v>124144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>165442</v>
+        <v>164192</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2692851304668385</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2330351567481709</v>
+        <v>0.2337138018254116</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3114622148741479</v>
+        <v>0.3091095947843679</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -2034,19 +2034,19 @@
         <v>50398</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39539</v>
+        <v>39716</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63349</v>
+        <v>62885</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3037756871922783</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2383230694821153</v>
+        <v>0.2393916428950785</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3818433682160515</v>
+        <v>0.379046960577879</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>193</v>
@@ -2055,19 +2055,19 @@
         <v>193436</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>171913</v>
+        <v>171416</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>218260</v>
+        <v>219509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2774937952631661</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2466185327130881</v>
+        <v>0.2459053042851768</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3131051764439312</v>
+        <v>0.3148974674709359</v>
       </c>
     </row>
     <row r="23">
@@ -2084,19 +2084,19 @@
         <v>80232</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>64841</v>
+        <v>62345</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>97430</v>
+        <v>98519</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1510456583366982</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1220700801328111</v>
+        <v>0.1173703786527069</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1834215944845741</v>
+        <v>0.185472449339339</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>45</v>
@@ -2105,19 +2105,19 @@
         <v>46683</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36238</v>
+        <v>34922</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>59701</v>
+        <v>59219</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2813826919269535</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2184285300019895</v>
+        <v>0.2104951567009932</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3598548856655787</v>
+        <v>0.3569475136422777</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>122</v>
@@ -2126,19 +2126,19 @@
         <v>126915</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>109184</v>
+        <v>106208</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>151263</v>
+        <v>147549</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.182065540903597</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1566296118506937</v>
+        <v>0.1523610969626227</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2169946374701245</v>
+        <v>0.2116669367592007</v>
       </c>
     </row>
     <row r="24">
@@ -2230,19 +2230,19 @@
         <v>40533</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28288</v>
+        <v>28995</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54101</v>
+        <v>55098</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03394448087474278</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02368986328997373</v>
+        <v>0.02428163039905317</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04530725467546513</v>
+        <v>0.04614182128292343</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2251,19 +2251,19 @@
         <v>7714</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3393</v>
+        <v>3214</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14782</v>
+        <v>16809</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01100300064907993</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004840521186003468</v>
+        <v>0.004584607769277292</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02108520890744907</v>
+        <v>0.02397758533108331</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>44</v>
@@ -2272,19 +2272,19 @@
         <v>48247</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36480</v>
+        <v>35257</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66394</v>
+        <v>65339</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02545800350481629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01924891179729608</v>
+        <v>0.01860403355731868</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03503343414958488</v>
+        <v>0.03447714831931083</v>
       </c>
     </row>
     <row r="26">
@@ -2301,19 +2301,19 @@
         <v>79655</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>64036</v>
+        <v>63589</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>97740</v>
+        <v>97158</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06670710007919833</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0536273431648426</v>
+        <v>0.05325306653408127</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08185258935795783</v>
+        <v>0.08136489885703632</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -2322,19 +2322,19 @@
         <v>32267</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22195</v>
+        <v>21832</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45789</v>
+        <v>46786</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04602636755503788</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03166028402467643</v>
+        <v>0.03114207923014299</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06531551806479469</v>
+        <v>0.06673649947268057</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>110</v>
@@ -2343,19 +2343,19 @@
         <v>111922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>92830</v>
+        <v>93685</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>132508</v>
+        <v>134823</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0590569150504457</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04898301963815336</v>
+        <v>0.04943416854131581</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06991959111422601</v>
+        <v>0.07114122323742633</v>
       </c>
     </row>
     <row r="27">
@@ -2372,19 +2372,19 @@
         <v>219779</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>192927</v>
+        <v>195167</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>246246</v>
+        <v>247375</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1840540793148721</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.161566778952129</v>
+        <v>0.1634427880927046</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2062193446352004</v>
+        <v>0.2071644515479246</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>46</v>
@@ -2393,19 +2393,19 @@
         <v>50325</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>37361</v>
+        <v>36711</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>66945</v>
+        <v>67381</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07178582665803619</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05329279750512585</v>
+        <v>0.05236556932755682</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09549246808779975</v>
+        <v>0.09611389919613218</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>260</v>
@@ -2414,19 +2414,19 @@
         <v>270104</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>237550</v>
+        <v>238161</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>299462</v>
+        <v>298838</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1425239785471088</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1253465098810453</v>
+        <v>0.1256685973134247</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1580151160070194</v>
+        <v>0.1576858474945623</v>
       </c>
     </row>
     <row r="28">
@@ -2443,19 +2443,19 @@
         <v>426030</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>392443</v>
+        <v>395225</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>457994</v>
+        <v>461573</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3567796935752047</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3286522749237089</v>
+        <v>0.3309818497265327</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3835484942536672</v>
+        <v>0.3865456260966</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>261</v>
@@ -2464,19 +2464,19 @@
         <v>264250</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>238473</v>
+        <v>237494</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>289239</v>
+        <v>290083</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3769351678958237</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3401652153269987</v>
+        <v>0.3387689510365085</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4125803423887145</v>
+        <v>0.413783537208356</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>686</v>
@@ -2485,19 +2485,19 @@
         <v>690280</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>651987</v>
+        <v>650826</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>734323</v>
+        <v>729381</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3642355758905371</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.344029401582347</v>
+        <v>0.3434167216153129</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3874752489677344</v>
+        <v>0.3848674919091686</v>
       </c>
     </row>
     <row r="29">
@@ -2514,19 +2514,19 @@
         <v>237491</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>209822</v>
+        <v>211525</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>265265</v>
+        <v>267594</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1988872559866834</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1757161974847069</v>
+        <v>0.1771418074826392</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2221465791315499</v>
+        <v>0.2240975711764642</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>196</v>
@@ -2535,19 +2535,19 @@
         <v>201746</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>178043</v>
+        <v>178064</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>225018</v>
+        <v>226675</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2877774204673137</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2539668046266735</v>
+        <v>0.2539961067443094</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3209728703743625</v>
+        <v>0.3233365619377632</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>430</v>
@@ -2556,19 +2556,19 @@
         <v>439237</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>402475</v>
+        <v>403917</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>474558</v>
+        <v>478067</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2317693700374614</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2123713064793325</v>
+        <v>0.2131322530689104</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2504070384303265</v>
+        <v>0.2522585634530094</v>
       </c>
     </row>
     <row r="30">
@@ -2585,19 +2585,19 @@
         <v>190611</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>165861</v>
+        <v>163906</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>216703</v>
+        <v>215476</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1596273901692986</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1389010330848458</v>
+        <v>0.137263484359515</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1814785792055886</v>
+        <v>0.1804508511861753</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>141</v>
@@ -2606,19 +2606,19 @@
         <v>144747</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>124435</v>
+        <v>124398</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>166604</v>
+        <v>164582</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2064722167747086</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1774976229771877</v>
+        <v>0.1774447454621581</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2376493386544627</v>
+        <v>0.2347645544112159</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>330</v>
@@ -2627,19 +2627,19 @@
         <v>335358</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>301463</v>
+        <v>303692</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>372195</v>
+        <v>370516</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1769561569696307</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1590708413704667</v>
+        <v>0.1602470728990502</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.196393692271279</v>
+        <v>0.1955074837946819</v>
       </c>
     </row>
     <row r="31">
@@ -2731,19 +2731,19 @@
         <v>19565</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12236</v>
+        <v>12184</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30912</v>
+        <v>29797</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0591613913022248</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03700097965458751</v>
+        <v>0.03684187949726787</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09347214796583944</v>
+        <v>0.09010079745284406</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -2752,19 +2752,19 @@
         <v>8748</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3625</v>
+        <v>3985</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16903</v>
+        <v>17543</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01580661760368882</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006548997236651531</v>
+        <v>0.007199513002677032</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03054224431127902</v>
+        <v>0.03169865276358926</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>26</v>
@@ -2773,19 +2773,19 @@
         <v>28313</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19644</v>
+        <v>18033</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>41591</v>
+        <v>39820</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03202296212833793</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02221835308554537</v>
+        <v>0.02039557067844754</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04704044335785405</v>
+        <v>0.04503799377385605</v>
       </c>
     </row>
     <row r="33">
@@ -2802,19 +2802,19 @@
         <v>38620</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>27629</v>
+        <v>27140</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>52275</v>
+        <v>52563</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1167795626958217</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.08354602290818129</v>
+        <v>0.08206781541845348</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1580691321298372</v>
+        <v>0.1589417695484885</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>24</v>
@@ -2823,19 +2823,19 @@
         <v>27478</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>17088</v>
+        <v>17975</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>40824</v>
+        <v>41425</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04964870596638944</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03087486148210237</v>
+        <v>0.03247877859107958</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07376390052946609</v>
+        <v>0.07484858206166209</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>60</v>
@@ -2844,19 +2844,19 @@
         <v>66098</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>50245</v>
+        <v>51392</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>82306</v>
+        <v>83120</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.0747582154411464</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05682826865737826</v>
+        <v>0.05812560972555482</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09308967846280947</v>
+        <v>0.09401140560481153</v>
       </c>
     </row>
     <row r="34">
@@ -2873,19 +2873,19 @@
         <v>48994</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>36445</v>
+        <v>36407</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>62926</v>
+        <v>62894</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1481485824651855</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.110203168104149</v>
+        <v>0.1100874951364584</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1902764692996628</v>
+        <v>0.1901814543052319</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>45</v>
@@ -2894,19 +2894,19 @@
         <v>50645</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>38664</v>
+        <v>37679</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>66123</v>
+        <v>65685</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09150826438969746</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06986058905302638</v>
+        <v>0.0680801378258251</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1194756466450995</v>
+        <v>0.1186845581720281</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>92</v>
@@ -2915,19 +2915,19 @@
         <v>99639</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>82223</v>
+        <v>80663</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>120853</v>
+        <v>119097</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1126939109412061</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09299687905125739</v>
+        <v>0.09123171117339335</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1366878230432615</v>
+        <v>0.1347022155399912</v>
       </c>
     </row>
     <row r="35">
@@ -2944,19 +2944,19 @@
         <v>94247</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>78643</v>
+        <v>78198</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>111792</v>
+        <v>109638</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2849855010762563</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2378016072320233</v>
+        <v>0.2364583270659865</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3380391502322198</v>
+        <v>0.3315257752830527</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>172</v>
@@ -2965,19 +2965,19 @@
         <v>177574</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>156542</v>
+        <v>155144</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>199405</v>
+        <v>198954</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3208513761834337</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2828491850667936</v>
+        <v>0.2803230131585308</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3602967069779834</v>
+        <v>0.3594817845667808</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>263</v>
@@ -2986,19 +2986,19 @@
         <v>271821</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>244817</v>
+        <v>244056</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>299184</v>
+        <v>299943</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3074361663276465</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2768946245597156</v>
+        <v>0.2760339917424304</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3383854227635645</v>
+        <v>0.3392433789866663</v>
       </c>
     </row>
     <row r="36">
@@ -3015,19 +3015,19 @@
         <v>68122</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>53860</v>
+        <v>55094</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>83754</v>
+        <v>85308</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2059896714828061</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1628643603273602</v>
+        <v>0.166593663772644</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.253257732383419</v>
+        <v>0.2579558770275264</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>142</v>
@@ -3036,19 +3036,19 @@
         <v>146492</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>127625</v>
+        <v>126080</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>168256</v>
+        <v>168460</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2646905687665809</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2306011129876341</v>
+        <v>0.2278096142842849</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3040159714321659</v>
+        <v>0.3043844658822908</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>208</v>
@@ -3057,19 +3057,19 @@
         <v>214614</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>191257</v>
+        <v>189666</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>243672</v>
+        <v>240178</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2427341867340326</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2163171479717406</v>
+        <v>0.2145169845579732</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2755994733700865</v>
+        <v>0.2716480167047441</v>
       </c>
     </row>
     <row r="37">
@@ -3086,19 +3086,19 @@
         <v>61159</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>48180</v>
+        <v>47751</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>75594</v>
+        <v>76131</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1849352909777056</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1456890691949428</v>
+        <v>0.1443913423232726</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.228583693102247</v>
+        <v>0.2302056518479478</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>134</v>
@@ -3107,19 +3107,19 @@
         <v>142509</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>120956</v>
+        <v>120996</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>161566</v>
+        <v>166426</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2574944670902096</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2185503325839651</v>
+        <v>0.2186234102316244</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2919280359908194</v>
+        <v>0.3007086651660981</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>194</v>
@@ -3128,19 +3128,19 @@
         <v>203669</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>179875</v>
+        <v>180885</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>232896</v>
+        <v>230613</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2303545584276305</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2034428939199034</v>
+        <v>0.2045853434061189</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2634116774374415</v>
+        <v>0.2608292708285116</v>
       </c>
     </row>
     <row r="38">
@@ -3232,19 +3232,19 @@
         <v>8459</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>4387</v>
+        <v>4464</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>16205</v>
+        <v>15286</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02877554676610984</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0149251123114676</v>
+        <v>0.01518604847997584</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05512600937830136</v>
+        <v>0.05199926819674446</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>16</v>
@@ -3253,19 +3253,19 @@
         <v>16695</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>10287</v>
+        <v>9869</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>27472</v>
+        <v>26373</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01366961467120406</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.008423124254082802</v>
+        <v>0.00808029025000453</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02249358710914591</v>
+        <v>0.0215932672891894</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>25</v>
@@ -3274,19 +3274,19 @@
         <v>25154</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>15706</v>
+        <v>16618</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>36456</v>
+        <v>37738</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01660009975576129</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01036529023558294</v>
+        <v>0.01096665629961729</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.02405851533033804</v>
+        <v>0.02490478453476326</v>
       </c>
     </row>
     <row r="40">
@@ -3303,19 +3303,19 @@
         <v>41838</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>30934</v>
+        <v>30836</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>56123</v>
+        <v>55291</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1423238417588723</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1052312172893227</v>
+        <v>0.1048970027950293</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1909207779897501</v>
+        <v>0.1880887837256278</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>51</v>
@@ -3324,19 +3324,19 @@
         <v>50618</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>37500</v>
+        <v>37997</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>65497</v>
+        <v>65753</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04144464748856794</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03070383315868107</v>
+        <v>0.03111099316937554</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05362776556550952</v>
+        <v>0.05383710208562881</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>92</v>
@@ -3345,19 +3345,19 @@
         <v>92455</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>74402</v>
+        <v>75917</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>113877</v>
+        <v>113172</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06101477214515717</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0491009302461243</v>
+        <v>0.0501005736543956</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07515177190917141</v>
+        <v>0.07468686084212672</v>
       </c>
     </row>
     <row r="41">
@@ -3374,19 +3374,19 @@
         <v>53938</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>41530</v>
+        <v>41639</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>67808</v>
+        <v>66856</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1834871707207245</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1412774931151992</v>
+        <v>0.1416492023111943</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2306707019900578</v>
+        <v>0.2274325023574192</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>74</v>
@@ -3395,19 +3395,19 @@
         <v>73894</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>57213</v>
+        <v>59933</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>90292</v>
+        <v>93656</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.06050285099765856</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04684452544721709</v>
+        <v>0.04907226258754944</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0739288263436863</v>
+        <v>0.07668330914544434</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>129</v>
@@ -3416,19 +3416,19 @@
         <v>127832</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>108209</v>
+        <v>108754</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>149001</v>
+        <v>151771</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.08436127378935127</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07141124635365977</v>
+        <v>0.07177134397727934</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09833190245214582</v>
+        <v>0.1001595704863852</v>
       </c>
     </row>
     <row r="42">
@@ -3445,19 +3445,19 @@
         <v>103245</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>86433</v>
+        <v>88374</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>118783</v>
+        <v>119254</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3512210876692951</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2940291528517017</v>
+        <v>0.3006340472572178</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4040789175189765</v>
+        <v>0.4056805615883002</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>402</v>
@@ -3466,19 +3466,19 @@
         <v>398628</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>365440</v>
+        <v>367359</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>431011</v>
+        <v>432045</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3263882795178693</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2992141526120974</v>
+        <v>0.3007855152439679</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.352902299074306</v>
+        <v>0.3537492069883846</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>511</v>
@@ -3487,19 +3487,19 @@
         <v>501873</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>467567</v>
+        <v>463059</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>540903</v>
+        <v>536503</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3312057362254872</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3085656758737194</v>
+        <v>0.305590527623151</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3569633493841408</v>
+        <v>0.3540594568107064</v>
       </c>
     </row>
     <row r="43">
@@ -3516,19 +3516,19 @@
         <v>48941</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>37673</v>
+        <v>37023</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>63230</v>
+        <v>60985</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.166487677241377</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1281583249806766</v>
+        <v>0.1259450631299003</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2150973313980095</v>
+        <v>0.2074609044009197</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>379</v>
@@ -3537,19 +3537,19 @@
         <v>381568</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>348506</v>
+        <v>349075</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>412069</v>
+        <v>411718</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3124196522034074</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2853489793235206</v>
+        <v>0.2858149396637483</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3373930542137116</v>
+        <v>0.3371057649195423</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>428</v>
@@ -3558,19 +3558,19 @@
         <v>430509</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>395202</v>
+        <v>395580</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>468783</v>
+        <v>466091</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2841094841648242</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2608090223779798</v>
+        <v>0.2610587600312568</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3093685990692723</v>
+        <v>0.3075918084002603</v>
       </c>
     </row>
     <row r="44">
@@ -3587,19 +3587,19 @@
         <v>37540</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>27761</v>
+        <v>27645</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>51442</v>
+        <v>51188</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1277046758436213</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09443899158871387</v>
+        <v>0.09404203457917806</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.174995601681519</v>
+        <v>0.1741321975106389</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>289</v>
@@ -3608,19 +3608,19 @@
         <v>299928</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>273622</v>
+        <v>270132</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>333307</v>
+        <v>330243</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2455749551212927</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2240361386558477</v>
+        <v>0.2211786990242062</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2729050705442954</v>
+        <v>0.2703961912556987</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>327</v>
@@ -3629,19 +3629,19 @@
         <v>337468</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>306579</v>
+        <v>306958</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>373513</v>
+        <v>369666</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2227086339194188</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2023232738004622</v>
+        <v>0.2025738091018433</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2464958418887226</v>
+        <v>0.2439571638834138</v>
       </c>
     </row>
     <row r="45">
@@ -3733,19 +3733,19 @@
         <v>91665</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>72872</v>
+        <v>72628</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>110877</v>
+        <v>112073</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02889465745336752</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02297071749576689</v>
+        <v>0.02289366573685422</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03495070161913</v>
+        <v>0.03532759940635929</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>32</v>
@@ -3754,19 +3754,19 @@
         <v>34975</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>24088</v>
+        <v>24527</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>47301</v>
+        <v>49822</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01055989351849295</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.007272665910541549</v>
+        <v>0.007405201112863903</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01428122387844828</v>
+        <v>0.01504241648659613</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>118</v>
@@ -3775,19 +3775,19 @@
         <v>126641</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>105059</v>
+        <v>104396</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>154134</v>
+        <v>150725</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01952977323477614</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01620156251526547</v>
+        <v>0.01609932015896947</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02376966525322135</v>
+        <v>0.02324394819481632</v>
       </c>
     </row>
     <row r="47">
@@ -3804,19 +3804,19 @@
         <v>250465</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>223474</v>
+        <v>223870</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>283598</v>
+        <v>286188</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.07895132679054723</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.07044319691955561</v>
+        <v>0.07056802234138133</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08939556687694157</v>
+        <v>0.09021210826090714</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>127</v>
@@ -3825,19 +3825,19 @@
         <v>132347</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>112492</v>
+        <v>111710</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>157643</v>
+        <v>157575</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03995868272726225</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03396395304730888</v>
+        <v>0.03372804754021918</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0475962444631209</v>
+        <v>0.04757571197483909</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>371</v>
@@ -3846,19 +3846,19 @@
         <v>382812</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>348922</v>
+        <v>344252</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>421976</v>
+        <v>417488</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05903497562690698</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.05380874092877189</v>
+        <v>0.05308847117676648</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06507465163342038</v>
+        <v>0.06438253776846235</v>
       </c>
     </row>
     <row r="48">
@@ -3875,19 +3875,19 @@
         <v>486703</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>446903</v>
+        <v>448846</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>530494</v>
+        <v>527932</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1534183475479985</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1408725946307005</v>
+        <v>0.1414850411078698</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1672219854350687</v>
+        <v>0.1664145688280296</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>214</v>
@@ -3896,19 +3896,19 @@
         <v>226513</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>196411</v>
+        <v>198025</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>257638</v>
+        <v>257870</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.06838957540409661</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.05930120511211972</v>
+        <v>0.05978833843219449</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.07778714668433508</v>
+        <v>0.0778569501488492</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>688</v>
@@ -3917,19 +3917,19 @@
         <v>713216</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>661550</v>
+        <v>666183</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>766386</v>
+        <v>764749</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1099880307353552</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1020203463102035</v>
+        <v>0.1027348630645471</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1181876377307571</v>
+        <v>0.1179351840502546</v>
       </c>
     </row>
     <row r="49">
@@ -3946,19 +3946,19 @@
         <v>1119833</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1066733</v>
+        <v>1069094</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1178980</v>
+        <v>1176163</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3529931610373237</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3362550390718869</v>
+        <v>0.3369991175845623</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3716375296959662</v>
+        <v>0.3707493072608045</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1125</v>
@@ -3967,19 +3967,19 @@
         <v>1134577</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1082193</v>
+        <v>1082427</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1189071</v>
+        <v>1190030</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3425556536077415</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3267397049223293</v>
+        <v>0.3268104695977146</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3590087993757684</v>
+        <v>0.3592983841997833</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2227</v>
@@ -3988,19 +3988,19 @@
         <v>2254410</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2172189</v>
+        <v>2177586</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2333612</v>
+        <v>2329477</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3476619743934203</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3349823195971148</v>
+        <v>0.3358146342962848</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3598760523033112</v>
+        <v>0.359238456652939</v>
       </c>
     </row>
     <row r="50">
@@ -4017,19 +4017,19 @@
         <v>705852</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>656118</v>
+        <v>659918</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>752598</v>
+        <v>758211</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2224982900826992</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2068213035260773</v>
+        <v>0.2080190374403534</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2372334453028721</v>
+        <v>0.2390029009022571</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>976</v>
@@ -4038,19 +4038,19 @@
         <v>998043</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>944154</v>
+        <v>945536</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1050306</v>
+        <v>1054123</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3013327766789077</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2850625451692643</v>
+        <v>0.285479757125826</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3171123887695697</v>
+        <v>0.3182647547460956</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1672</v>
@@ -4059,19 +4059,19 @@
         <v>1703895</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1634763</v>
+        <v>1632245</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1775993</v>
+        <v>1776560</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2627647392187751</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2521036365750275</v>
+        <v>0.2517153191224106</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2738833140675956</v>
+        <v>0.2739707981938108</v>
       </c>
     </row>
     <row r="51">
@@ -4088,19 +4088,19 @@
         <v>517875</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>477281</v>
+        <v>475281</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>560449</v>
+        <v>556963</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1632442170880639</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.15044838091229</v>
+        <v>0.1498177988251568</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1766643711126421</v>
+        <v>0.175565615284773</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>758</v>
@@ -4109,19 +4109,19 @@
         <v>785640</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>736206</v>
+        <v>738665</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>839212</v>
+        <v>838039</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.237203418063499</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.2222779911217737</v>
+        <v>0.2230203848839351</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.2533778915262593</v>
+        <v>0.2530237068821229</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>1262</v>
@@ -4130,19 +4130,19 @@
         <v>1303515</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>1232504</v>
+        <v>1242237</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>1367824</v>
+        <v>1372681</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2010205067907662</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1900696070628862</v>
+        <v>0.1915705769770943</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.2109378208748923</v>
+        <v>0.2116868996052073</v>
       </c>
     </row>
     <row r="52">
@@ -4476,19 +4476,19 @@
         <v>20358</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12364</v>
+        <v>12079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32071</v>
+        <v>31684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04734673064220459</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02875426508278599</v>
+        <v>0.02809163541558435</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07458649976326849</v>
+        <v>0.07368812556478757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -4497,19 +4497,19 @@
         <v>5965</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2167</v>
+        <v>2154</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13251</v>
+        <v>12260</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01915243912718497</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006957713252306373</v>
+        <v>0.006915171483808033</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04255054864564375</v>
+        <v>0.03936887480749471</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -4518,19 +4518,19 @@
         <v>26323</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16597</v>
+        <v>17636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38545</v>
+        <v>40276</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03550380255784082</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02238541053080884</v>
+        <v>0.02378683064043896</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05198891734824745</v>
+        <v>0.05432433077531414</v>
       </c>
     </row>
     <row r="5">
@@ -4547,19 +4547,19 @@
         <v>28312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19257</v>
+        <v>19086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40417</v>
+        <v>42362</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0658454690782934</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04478652058985303</v>
+        <v>0.04438733543348016</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09399692186429894</v>
+        <v>0.09852146007078467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -4568,19 +4568,19 @@
         <v>25021</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15192</v>
+        <v>16512</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37223</v>
+        <v>36308</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08034218255283891</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04878094235765378</v>
+        <v>0.05302161940683163</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1195242252216532</v>
+        <v>0.1165875737940199</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -4589,19 +4589,19 @@
         <v>53333</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39466</v>
+        <v>39232</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>69941</v>
+        <v>69125</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07193477034863073</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05323182539235162</v>
+        <v>0.05291612447581644</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09433484865836989</v>
+        <v>0.0932355245647562</v>
       </c>
     </row>
     <row r="6">
@@ -4618,19 +4618,19 @@
         <v>72513</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57267</v>
+        <v>56383</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88971</v>
+        <v>90579</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.168642339148865</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1331846709869759</v>
+        <v>0.1311296329624414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2069185318174419</v>
+        <v>0.2106580001662383</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -4639,19 +4639,19 @@
         <v>39271</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27414</v>
+        <v>27583</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>53484</v>
+        <v>55600</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1261008059690397</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08802647058092904</v>
+        <v>0.08856938618422958</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1717379155184697</v>
+        <v>0.1785338979191281</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -4660,19 +4660,19 @@
         <v>111784</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92309</v>
+        <v>92748</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>134610</v>
+        <v>135286</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1507728949821671</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1245055743005606</v>
+        <v>0.1250973049278318</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1815600063538303</v>
+        <v>0.1824724646308894</v>
       </c>
     </row>
     <row r="7">
@@ -4689,19 +4689,19 @@
         <v>141455</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>121727</v>
+        <v>121756</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163657</v>
+        <v>161670</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.328980783307611</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2830978610763664</v>
+        <v>0.2831662348979005</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3806153087611055</v>
+        <v>0.375993961524968</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>74</v>
@@ -4710,19 +4710,19 @@
         <v>80158</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64605</v>
+        <v>64114</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98048</v>
+        <v>96966</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2573888264197667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2074484403282982</v>
+        <v>0.2058725151418646</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3148363340993479</v>
+        <v>0.3113602698617791</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>204</v>
@@ -4731,19 +4731,19 @@
         <v>221613</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>194674</v>
+        <v>191390</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>247133</v>
+        <v>246130</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2989087952815972</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2625732626651981</v>
+        <v>0.2581437667830162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3333294674709331</v>
+        <v>0.3319775250543599</v>
       </c>
     </row>
     <row r="8">
@@ -4760,19 +4760,19 @@
         <v>89993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>72762</v>
+        <v>73137</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107785</v>
+        <v>108661</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2092962098307052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1692216047713785</v>
+        <v>0.1700926335403256</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2506729706412758</v>
+        <v>0.2527119990892532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>73</v>
@@ -4781,19 +4781,19 @@
         <v>80238</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64647</v>
+        <v>64001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96325</v>
+        <v>97117</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2576482491538649</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.207583968497123</v>
+        <v>0.205509685857886</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3093040195822865</v>
+        <v>0.3118468425845997</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>156</v>
@@ -4802,19 +4802,19 @@
         <v>170232</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>149052</v>
+        <v>147726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>197615</v>
+        <v>195175</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2296063397778066</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2010396304753374</v>
+        <v>0.1992502923185426</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2665401858283804</v>
+        <v>0.2632497550759706</v>
       </c>
     </row>
     <row r="9">
@@ -4831,19 +4831,19 @@
         <v>77349</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61412</v>
+        <v>62793</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>94933</v>
+        <v>94992</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1798884679923209</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1428255653049089</v>
+        <v>0.14603678442228</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.220785259815025</v>
+        <v>0.2209214849947762</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>74</v>
@@ -4852,19 +4852,19 @@
         <v>80774</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>65016</v>
+        <v>63853</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>98039</v>
+        <v>98933</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2593674967773049</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2087694746183984</v>
+        <v>0.2050337737526196</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3148066424339059</v>
+        <v>0.3176784929906799</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>146</v>
@@ -4873,19 +4873,19 @@
         <v>158122</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>135844</v>
+        <v>136678</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>180943</v>
+        <v>182705</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2132733970519575</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1832239243585645</v>
+        <v>0.1843501111747879</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.244052910295798</v>
+        <v>0.2464294872397811</v>
       </c>
     </row>
     <row r="10">
@@ -4977,19 +4977,19 @@
         <v>8000</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3935</v>
+        <v>3835</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15274</v>
+        <v>15118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01929381635289488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009489677766244245</v>
+        <v>0.009249022212653927</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03683690062281494</v>
+        <v>0.03646018636731898</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4998,19 +4998,19 @@
         <v>9481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4494</v>
+        <v>4520</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17746</v>
+        <v>17500</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02847356184518193</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01349514644589563</v>
+        <v>0.01357373575455773</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05329408612493001</v>
+        <v>0.05255634259675038</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -5019,19 +5019,19 @@
         <v>17481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10712</v>
+        <v>10663</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27422</v>
+        <v>26276</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02338239308396426</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01432766194593989</v>
+        <v>0.01426195074857328</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03667850908815429</v>
+        <v>0.03514587983198528</v>
       </c>
     </row>
     <row r="12">
@@ -5048,19 +5048,19 @@
         <v>42378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30532</v>
+        <v>30855</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58943</v>
+        <v>56222</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1022053873442895</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07363577768087823</v>
+        <v>0.07441504842989205</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1421553371450229</v>
+        <v>0.1355936659321812</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -5069,19 +5069,19 @@
         <v>29096</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19137</v>
+        <v>18838</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40966</v>
+        <v>41723</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08737918905664645</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05747226640637843</v>
+        <v>0.0565747573663905</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.123028719616051</v>
+        <v>0.125300181254954</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>61</v>
@@ -5090,19 +5090,19 @@
         <v>71474</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55536</v>
+        <v>55722</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>89375</v>
+        <v>92160</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09560193092166752</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07428352481371574</v>
+        <v>0.07453191053397999</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1195454163034357</v>
+        <v>0.1232710255876175</v>
       </c>
     </row>
     <row r="13">
@@ -5119,19 +5119,19 @@
         <v>59799</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45497</v>
+        <v>44600</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78000</v>
+        <v>76354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1442199733706223</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1097284365582358</v>
+        <v>0.1075642800818231</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1881175231077053</v>
+        <v>0.184146431782063</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -5140,19 +5140,19 @@
         <v>39043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28177</v>
+        <v>27808</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53425</v>
+        <v>52981</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1172523483551608</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08461920505020547</v>
+        <v>0.08351050171285254</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1604438848764588</v>
+        <v>0.1591102095642219</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -5161,19 +5161,19 @@
         <v>98842</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81053</v>
+        <v>80453</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120316</v>
+        <v>120487</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1322088338218122</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.108414676957271</v>
+        <v>0.1076117882328217</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1609314282826425</v>
+        <v>0.1611603362301549</v>
       </c>
     </row>
     <row r="14">
@@ -5190,19 +5190,19 @@
         <v>124034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103917</v>
+        <v>103851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>143885</v>
+        <v>145008</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2991388076155909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2506210710876198</v>
+        <v>0.2504623871229594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3470140754122232</v>
+        <v>0.3497228538967201</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>75</v>
@@ -5211,19 +5211,19 @@
         <v>81738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65934</v>
+        <v>67198</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98695</v>
+        <v>99841</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2454724623337033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1980097551318605</v>
+        <v>0.2018046276192377</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2963955374550715</v>
+        <v>0.2998392442865794</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -5232,19 +5232,19 @@
         <v>205772</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>181011</v>
+        <v>181410</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>230326</v>
+        <v>231989</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2752362962937444</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.242116175581034</v>
+        <v>0.2426500652279468</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3080794200871966</v>
+        <v>0.3103038327102205</v>
       </c>
     </row>
     <row r="15">
@@ -5261,19 +5261,19 @@
         <v>97986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>81563</v>
+        <v>81386</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>118222</v>
+        <v>118822</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2363180714131236</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1967096800109812</v>
+        <v>0.1962832165605516</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.285121161518577</v>
+        <v>0.2865694790313895</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>82</v>
@@ -5282,19 +5282,19 @@
         <v>92246</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>76070</v>
+        <v>74620</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>110825</v>
+        <v>110106</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2770282077547984</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2284508463606345</v>
+        <v>0.2240949552046042</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3328236881208443</v>
+        <v>0.330666446359007</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>171</v>
@@ -5303,19 +5303,19 @@
         <v>190232</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>165663</v>
+        <v>164813</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>216735</v>
+        <v>216642</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2544500028817122</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2215870138721799</v>
+        <v>0.2204506464224744</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2899000986748557</v>
+        <v>0.2897753961476833</v>
       </c>
     </row>
     <row r="16">
@@ -5332,19 +5332,19 @@
         <v>82440</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65634</v>
+        <v>65600</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100019</v>
+        <v>100032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1988239439034788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1582917210249712</v>
+        <v>0.1582110879552944</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2412194366255291</v>
+        <v>0.2412523917020955</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -5353,19 +5353,19 @@
         <v>81379</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66681</v>
+        <v>67062</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97567</v>
+        <v>98297</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2443942306545091</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.200252444579558</v>
+        <v>0.2013961974452113</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2930085054040386</v>
+        <v>0.295200596991102</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>149</v>
@@ -5374,19 +5374,19 @@
         <v>163819</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>139630</v>
+        <v>143177</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>189707</v>
+        <v>189452</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2191205429970994</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1867663282755374</v>
+        <v>0.1915109235800183</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2537484900793869</v>
+        <v>0.2534071945460574</v>
       </c>
     </row>
     <row r="17">
@@ -5478,19 +5478,19 @@
         <v>24640</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15614</v>
+        <v>15687</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37851</v>
+        <v>38332</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03986054480749494</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0252594374098666</v>
+        <v>0.02537740683819879</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06123267120928448</v>
+        <v>0.06200998108524289</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -5499,19 +5499,19 @@
         <v>3923</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1018</v>
+        <v>975</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>9744</v>
+        <v>9943</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01577626723594012</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.004094627727336391</v>
+        <v>0.003921767103337794</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03918595729681219</v>
+        <v>0.0399882450809638</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -5520,19 +5520,19 @@
         <v>28563</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18431</v>
+        <v>19205</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43811</v>
+        <v>42411</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0329516396549529</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02126316760284305</v>
+        <v>0.0221559973089265</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05054273851986722</v>
+        <v>0.04892763770092115</v>
       </c>
     </row>
     <row r="19">
@@ -5549,19 +5549,19 @@
         <v>89287</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>73060</v>
+        <v>72278</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108112</v>
+        <v>107639</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1444404957384313</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1181905417677339</v>
+        <v>0.1169249783346771</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1748944739833822</v>
+        <v>0.1741293504943837</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -5570,19 +5570,19 @@
         <v>30998</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21579</v>
+        <v>21951</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43175</v>
+        <v>42977</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1246616729464206</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08678098278604691</v>
+        <v>0.08827678478948353</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1736308789865845</v>
+        <v>0.1728358252612572</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>110</v>
@@ -5591,19 +5591,19 @@
         <v>120285</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101642</v>
+        <v>98925</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>142275</v>
+        <v>142281</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1387666693056911</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1172595088371488</v>
+        <v>0.1141248952977311</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1641357889276986</v>
+        <v>0.1641419585871248</v>
       </c>
     </row>
     <row r="20">
@@ -5620,19 +5620,19 @@
         <v>95713</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78208</v>
+        <v>80304</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>114230</v>
+        <v>114575</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1548358674127727</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1265176010074888</v>
+        <v>0.1299092720181254</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1847919282567907</v>
+        <v>0.1853496428127084</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -5641,19 +5641,19 @@
         <v>30011</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21115</v>
+        <v>20592</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42467</v>
+        <v>41940</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1206914435864929</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08491563820104542</v>
+        <v>0.08281277696491321</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1707858798136428</v>
+        <v>0.1686657095220624</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -5662,19 +5662,19 @@
         <v>125724</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105462</v>
+        <v>105271</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>147966</v>
+        <v>149964</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1450410714093179</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1216655633728967</v>
+        <v>0.1214461111421013</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1707011549230385</v>
+        <v>0.1730052943352872</v>
       </c>
     </row>
     <row r="21">
@@ -5691,19 +5691,19 @@
         <v>171882</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>153223</v>
+        <v>150421</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>194499</v>
+        <v>194212</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2780552140330105</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2478712146044982</v>
+        <v>0.2433377588465814</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3146437266348622</v>
+        <v>0.3141793102919672</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>47</v>
@@ -5712,19 +5712,19 @@
         <v>48834</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>37288</v>
+        <v>36996</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>61235</v>
+        <v>61761</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1963911412109385</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1499568669025919</v>
+        <v>0.1487808052215695</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2462602508218819</v>
+        <v>0.2483786588807591</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>212</v>
@@ -5733,19 +5733,19 @@
         <v>220716</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>194133</v>
+        <v>196578</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>249340</v>
+        <v>247531</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2546287553476002</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2239610888642649</v>
+        <v>0.2267816159734493</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2876505836695409</v>
+        <v>0.2855640602061599</v>
       </c>
     </row>
     <row r="22">
@@ -5762,19 +5762,19 @@
         <v>140325</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>118141</v>
+        <v>119577</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>161328</v>
+        <v>162876</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2270057009887135</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1911187440122694</v>
+        <v>0.1934408205659015</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2609815356675576</v>
+        <v>0.2634872031095097</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>75</v>
@@ -5783,19 +5783,19 @@
         <v>79211</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65880</v>
+        <v>64773</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96187</v>
+        <v>95061</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3185545801218772</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2649438277501311</v>
+        <v>0.2604900345979753</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3868248632360241</v>
+        <v>0.3822944195967579</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>207</v>
@@ -5804,19 +5804,19 @@
         <v>219536</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>194067</v>
+        <v>193319</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>245404</v>
+        <v>247144</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2532677518587629</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2238856747385992</v>
+        <v>0.2230226993952632</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2831101836196156</v>
+        <v>0.2851178498343368</v>
       </c>
     </row>
     <row r="23">
@@ -5833,19 +5833,19 @@
         <v>96310</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>77831</v>
+        <v>77842</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>116032</v>
+        <v>115450</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.155802177019577</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1259080533674369</v>
+        <v>0.1259253201347365</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1877059500498902</v>
+        <v>0.1867643992861371</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>51</v>
@@ -5854,19 +5854,19 @@
         <v>55681</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>43108</v>
+        <v>42871</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>70821</v>
+        <v>71666</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2239248948983308</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1733615556929318</v>
+        <v>0.1724110966095159</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2848131397214118</v>
+        <v>0.2882131058530443</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>141</v>
@@ -5875,19 +5875,19 @@
         <v>151991</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>129460</v>
+        <v>129666</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>177274</v>
+        <v>175154</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.175344112423675</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1493508375140121</v>
+        <v>0.1495889829721214</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2045122075345689</v>
+        <v>0.2020660243571732</v>
       </c>
     </row>
     <row r="24">
@@ -5979,19 +5979,19 @@
         <v>74603</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59522</v>
+        <v>59428</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>93581</v>
+        <v>93170</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06539904802339627</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05217860417240854</v>
+        <v>0.05209605278477525</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08203531197943709</v>
+        <v>0.08167544492664769</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -6000,19 +6000,19 @@
         <v>22792</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14036</v>
+        <v>14635</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32621</v>
+        <v>33947</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03012691706990043</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01855250050377259</v>
+        <v>0.01934424094657365</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0431189735128649</v>
+        <v>0.04487202026613613</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -6021,19 +6021,19 @@
         <v>97395</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77823</v>
+        <v>78597</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>117897</v>
+        <v>117573</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05133435182996511</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04101821869512065</v>
+        <v>0.04142639306186558</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06214057159916517</v>
+        <v>0.06196974520542956</v>
       </c>
     </row>
     <row r="26">
@@ -6050,19 +6050,19 @@
         <v>142222</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>122423</v>
+        <v>119172</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>167049</v>
+        <v>166739</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1246761792897023</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1073189757883938</v>
+        <v>0.1044693533388183</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1464393677438603</v>
+        <v>0.1461679821484388</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -6071,19 +6071,19 @@
         <v>67089</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52124</v>
+        <v>52870</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>85103</v>
+        <v>84091</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08867999406940956</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06889825678280999</v>
+        <v>0.06988484880420891</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1124907629283939</v>
+        <v>0.111152819910256</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>197</v>
@@ -6092,19 +6092,19 @@
         <v>209312</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>182716</v>
+        <v>181998</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>240702</v>
+        <v>238582</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1103227678127097</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09630487922332032</v>
+        <v>0.09592615967298193</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1268678274081577</v>
+        <v>0.125750157093668</v>
       </c>
     </row>
     <row r="27">
@@ -6121,19 +6121,19 @@
         <v>193372</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>168541</v>
+        <v>170031</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>222731</v>
+        <v>222841</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1695153242453824</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1477477229965654</v>
+        <v>0.149053636052535</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1952520474262431</v>
+        <v>0.195348183964229</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>70</v>
@@ -6142,19 +6142,19 @@
         <v>76753</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>60708</v>
+        <v>60661</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>95264</v>
+        <v>97075</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1014534421436451</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08024526926769206</v>
+        <v>0.08018273596170823</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1259215484678042</v>
+        <v>0.1283153489429294</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>251</v>
@@ -6163,19 +6163,19 @@
         <v>270125</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>242667</v>
+        <v>242849</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>303886</v>
+        <v>306465</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.142375776159213</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1279036186599616</v>
+        <v>0.1279992768857319</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1601702028744672</v>
+        <v>0.1615295815745795</v>
       </c>
     </row>
     <row r="28">
@@ -6192,19 +6192,19 @@
         <v>288660</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>257063</v>
+        <v>258595</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>316982</v>
+        <v>319245</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2530471882670217</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2253484131732083</v>
+        <v>0.2266919150876219</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2778753454767873</v>
+        <v>0.2798594635721799</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>174</v>
@@ -6213,19 +6213,19 @@
         <v>186542</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>162305</v>
+        <v>162350</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>212489</v>
+        <v>211199</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.24657550591745</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2145380206822695</v>
+        <v>0.2145970299176163</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2808726578518338</v>
+        <v>0.2791669150168426</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>444</v>
@@ -6234,19 +6234,19 @@
         <v>475202</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>438138</v>
+        <v>434810</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>514058</v>
+        <v>516358</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2504666170441737</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2309313709955786</v>
+        <v>0.2291771566007242</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2709464776943993</v>
+        <v>0.2721587259145881</v>
       </c>
     </row>
     <row r="29">
@@ -6263,19 +6263,19 @@
         <v>201544</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>176395</v>
+        <v>176698</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>229951</v>
+        <v>229096</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1766793067787512</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1546331196695262</v>
+        <v>0.1548980168632997</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2015813489521227</v>
+        <v>0.200831593576338</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>188</v>
@@ -6284,19 +6284,19 @@
         <v>205427</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>181201</v>
+        <v>183399</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>234934</v>
+        <v>233798</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2715383188076373</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2395148472351707</v>
+        <v>0.2424209600559716</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3105402742823947</v>
+        <v>0.3090392464938772</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>378</v>
@@ -6305,19 +6305,19 @@
         <v>406972</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>370979</v>
+        <v>372311</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>446772</v>
+        <v>445376</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2145041602630594</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1955331485269001</v>
+        <v>0.1962353529705595</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2354818121047664</v>
+        <v>0.2347463168393589</v>
       </c>
     </row>
     <row r="30">
@@ -6334,19 +6334,19 @@
         <v>240333</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>213611</v>
+        <v>216202</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>269759</v>
+        <v>273227</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2106829533957462</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1872571644466111</v>
+        <v>0.1895286272057653</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.236478623879829</v>
+        <v>0.2395185183385451</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>184</v>
@@ -6355,19 +6355,19 @@
         <v>197928</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>174551</v>
+        <v>171429</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>223063</v>
+        <v>223199</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2616258219919577</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2307258386705056</v>
+        <v>0.2265978745766782</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2948495276386927</v>
+        <v>0.2950285259425363</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>405</v>
@@ -6376,19 +6376,19 @@
         <v>438262</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>401621</v>
+        <v>397245</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>475951</v>
+        <v>477923</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2309963268908791</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2116841015478786</v>
+        <v>0.2093772657712558</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2508614136443118</v>
+        <v>0.2519008102866763</v>
       </c>
     </row>
     <row r="31">
@@ -6480,19 +6480,19 @@
         <v>36114</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24975</v>
+        <v>25311</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>48947</v>
+        <v>49636</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07178419963042759</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04964280384079656</v>
+        <v>0.0503100752687751</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0972930492862701</v>
+        <v>0.09866130577066298</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>40</v>
@@ -6501,19 +6501,19 @@
         <v>40649</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29664</v>
+        <v>30883</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>54431</v>
+        <v>56288</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05509171703770528</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04020353536793828</v>
+        <v>0.04185622188358001</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07376998705012631</v>
+        <v>0.07628741337488527</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>74</v>
@@ -6522,19 +6522,19 @@
         <v>76763</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>61644</v>
+        <v>62102</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>95173</v>
+        <v>95493</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0618590766694287</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0496751811621229</v>
+        <v>0.05004459646588719</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07669507038746708</v>
+        <v>0.07695291622343546</v>
       </c>
     </row>
     <row r="33">
@@ -6551,19 +6551,19 @@
         <v>77630</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>61899</v>
+        <v>63287</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>93388</v>
+        <v>95344</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1543061068058093</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1230379160062539</v>
+        <v>0.1257967035137303</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1856289096244327</v>
+        <v>0.1895165681544008</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>52</v>
@@ -6572,19 +6572,19 @@
         <v>55088</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>41325</v>
+        <v>42946</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>71550</v>
+        <v>70791</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07466139092346526</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05600801481300698</v>
+        <v>0.05820527878149003</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09697136892425377</v>
+        <v>0.09594310666747556</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>127</v>
@@ -6593,19 +6593,19 @@
         <v>132718</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>111003</v>
+        <v>111996</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>155098</v>
+        <v>155589</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1069504427255768</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08945124782738423</v>
+        <v>0.09025149809893006</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1249847431186402</v>
+        <v>0.1253804239523851</v>
       </c>
     </row>
     <row r="34">
@@ -6622,19 +6622,19 @@
         <v>78391</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>62913</v>
+        <v>63285</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>93766</v>
+        <v>96552</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1558193687295546</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1250528882392588</v>
+        <v>0.1257918081317779</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1863789809927814</v>
+        <v>0.1919170006551006</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>77</v>
@@ -6643,19 +6643,19 @@
         <v>85848</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>68801</v>
+        <v>68337</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>105120</v>
+        <v>105829</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1163499195624273</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09324667587277244</v>
+        <v>0.09261759999406814</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1424696982211384</v>
+        <v>0.1434304285750387</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>153</v>
@@ -6664,19 +6664,19 @@
         <v>164239</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>140670</v>
+        <v>141334</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>191194</v>
+        <v>191114</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1323513714433135</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1133580906896402</v>
+        <v>0.1138937198208983</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1540725658035416</v>
+        <v>0.1540080784596582</v>
       </c>
     </row>
     <row r="35">
@@ -6693,19 +6693,19 @@
         <v>109423</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>91934</v>
+        <v>89869</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>128261</v>
+        <v>127733</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2175016851466193</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1827388104594268</v>
+        <v>0.1786342010083455</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.254945345940566</v>
+        <v>0.2538966181707931</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>148</v>
@@ -6714,19 +6714,19 @@
         <v>158817</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>137730</v>
+        <v>137989</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>185283</v>
+        <v>183102</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2152446890084641</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1866660734700743</v>
+        <v>0.1870166928186268</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2511150140392037</v>
+        <v>0.2481590819757313</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>251</v>
@@ -6735,19 +6735,19 @@
         <v>268240</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>237010</v>
+        <v>237241</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>297770</v>
+        <v>298906</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2161597059611232</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1909936992470233</v>
+        <v>0.191179935581455</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2399564754817467</v>
+        <v>0.2408721035973965</v>
       </c>
     </row>
     <row r="36">
@@ -6764,19 +6764,19 @@
         <v>106628</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>88741</v>
+        <v>89103</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>125731</v>
+        <v>125606</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2119461843711959</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1763909295384069</v>
+        <v>0.1771109987333803</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2499172639746391</v>
+        <v>0.2496678269574183</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>191</v>
@@ -6785,19 +6785,19 @@
         <v>203184</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>178887</v>
+        <v>180274</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>227591</v>
+        <v>230956</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2753755417461859</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2424455901817656</v>
+        <v>0.2443261582046027</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3084542606833873</v>
+        <v>0.3130155264068639</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>291</v>
@@ -6806,19 +6806,19 @@
         <v>309812</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>278270</v>
+        <v>279920</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>338458</v>
+        <v>341991</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2496604169778179</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.22424269060241</v>
+        <v>0.225572202790795</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.272744447232622</v>
+        <v>0.2755914562442274</v>
       </c>
     </row>
     <row r="37">
@@ -6835,19 +6835,19 @@
         <v>94904</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>78348</v>
+        <v>78055</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>112880</v>
+        <v>113084</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1886424553163934</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1557323826550302</v>
+        <v>0.1551514815264683</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2243722926576627</v>
+        <v>0.2247777989987403</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>173</v>
@@ -6856,19 +6856,19 @@
         <v>194257</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>170049</v>
+        <v>171686</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>220298</v>
+        <v>221475</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2632767417217521</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2304683330036515</v>
+        <v>0.2326861981090175</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2985700486260188</v>
+        <v>0.3001654388956604</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>265</v>
@@ -6877,19 +6877,19 @@
         <v>289161</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>261845</v>
+        <v>258503</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>321684</v>
+        <v>324433</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2330189862227399</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2110061996563228</v>
+        <v>0.2083133767107644</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2592273437895118</v>
+        <v>0.2614428032790548</v>
       </c>
     </row>
     <row r="38">
@@ -6981,19 +6981,19 @@
         <v>9566</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>4900</v>
+        <v>4938</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>17777</v>
+        <v>18305</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0358443240960247</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01835875063268574</v>
+        <v>0.01850262590101623</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06660858486837365</v>
+        <v>0.06858979803759638</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>21</v>
@@ -7002,19 +7002,19 @@
         <v>22185</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>14373</v>
+        <v>14333</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>32355</v>
+        <v>32306</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02066201501686844</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01338661193373859</v>
+        <v>0.01334880797626938</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03013412877089738</v>
+        <v>0.03008875426582993</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>30</v>
@@ -7023,19 +7023,19 @@
         <v>31751</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>22485</v>
+        <v>22133</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>44752</v>
+        <v>43545</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02368449751581909</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01677292908680345</v>
+        <v>0.0165097695335894</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03338277759047875</v>
+        <v>0.03248187107726609</v>
       </c>
     </row>
     <row r="40">
@@ -7052,19 +7052,19 @@
         <v>31036</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>20877</v>
+        <v>20908</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>43492</v>
+        <v>43611</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1162892630405096</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07822485627269854</v>
+        <v>0.07834004182811673</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1629618809818457</v>
+        <v>0.1634101772313713</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>71</v>
@@ -7073,19 +7073,19 @@
         <v>74693</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>59474</v>
+        <v>58905</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>93577</v>
+        <v>93672</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06956581015945892</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05539206589914295</v>
+        <v>0.05486126534385144</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08715382393953998</v>
+        <v>0.0872420706957892</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>100</v>
@@ -7094,19 +7094,19 @@
         <v>105728</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>87848</v>
+        <v>85452</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>127619</v>
+        <v>127391</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07886747948309314</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06552966298222623</v>
+        <v>0.06374236241676903</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09519706246549678</v>
+        <v>0.09502653084202634</v>
       </c>
     </row>
     <row r="41">
@@ -7123,19 +7123,19 @@
         <v>36096</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>25418</v>
+        <v>26203</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>48707</v>
+        <v>48568</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1352514293310195</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0952408780651707</v>
+        <v>0.09818180647535776</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1825024016690846</v>
+        <v>0.1819817398620631</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>97</v>
@@ -7144,19 +7144,19 @@
         <v>103321</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>85082</v>
+        <v>84440</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>122498</v>
+        <v>124580</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09622910361431665</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07924147770820968</v>
+        <v>0.07864423865356691</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.114089861854516</v>
+        <v>0.116028495318584</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>132</v>
@@ -7165,19 +7165,19 @@
         <v>139417</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>117654</v>
+        <v>119997</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>163872</v>
+        <v>163635</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1039976384223065</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08776352022449951</v>
+        <v>0.08951120434763223</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1222392732102261</v>
+        <v>0.1220629685840991</v>
       </c>
     </row>
     <row r="42">
@@ -7194,19 +7194,19 @@
         <v>84724</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>70420</v>
+        <v>70212</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>99975</v>
+        <v>99795</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.317459390975332</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2638617413119966</v>
+        <v>0.2630844090692111</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3746049694514917</v>
+        <v>0.3739283477104899</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>256</v>
@@ -7215,19 +7215,19 @@
         <v>269800</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>243091</v>
+        <v>241980</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>302131</v>
+        <v>302054</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.251280250654966</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2264048132880953</v>
+        <v>0.2253701138256921</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2813927840755885</v>
+        <v>0.2813207812808319</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>342</v>
@@ -7236,19 +7236,19 @@
         <v>354524</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>321708</v>
+        <v>323026</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>387034</v>
+        <v>388061</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.264455143378532</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2399763194307896</v>
+        <v>0.2409595122595903</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2887059324370715</v>
+        <v>0.2894716770711738</v>
       </c>
     </row>
     <row r="43">
@@ -7265,19 +7265,19 @@
         <v>55676</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>43256</v>
+        <v>43503</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>68721</v>
+        <v>68840</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2086149400177746</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1620786075053482</v>
+        <v>0.1630029087299095</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2574957194029481</v>
+        <v>0.2579425763846246</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>267</v>
@@ -7286,19 +7286,19 @@
         <v>279846</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>252791</v>
+        <v>250672</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>309376</v>
+        <v>306513</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.260637302930132</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2354394192335429</v>
+        <v>0.2334652358570013</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2881396620071585</v>
+        <v>0.2854736619394949</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>324</v>
@@ -7307,19 +7307,19 @@
         <v>335522</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>305125</v>
+        <v>303052</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>365359</v>
+        <v>367454</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2502807306434744</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.227606140722925</v>
+        <v>0.2260602391153333</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2725374282490531</v>
+        <v>0.274100076691716</v>
       </c>
     </row>
     <row r="44">
@@ -7336,19 +7336,19 @@
         <v>49784</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>37472</v>
+        <v>38546</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>62902</v>
+        <v>64465</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1865406525393396</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1404066508534496</v>
+        <v>0.1444311687504336</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2356910190633634</v>
+        <v>0.2415478212488968</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>299</v>
@@ -7357,19 +7357,19 @@
         <v>323855</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>293513</v>
+        <v>291431</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>353835</v>
+        <v>355061</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.301625517624258</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2733656197706912</v>
+        <v>0.2714270421909019</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3295473353102323</v>
+        <v>0.3306894410061971</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>348</v>
@@ -7378,19 +7378,19 @@
         <v>373640</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>341960</v>
+        <v>344425</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>410882</v>
+        <v>408998</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2787145105567748</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2550834977609369</v>
+        <v>0.2569216425633689</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.306495498550165</v>
+        <v>0.3050901433165039</v>
       </c>
     </row>
     <row r="45">
@@ -7482,19 +7482,19 @@
         <v>173281</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>147866</v>
+        <v>145259</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>201200</v>
+        <v>200209</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.05136572210354216</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.04383178195256643</v>
+        <v>0.04305912672513336</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05964163135767209</v>
+        <v>0.05934794787982523</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>102</v>
@@ -7503,19 +7503,19 @@
         <v>104994</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>86498</v>
+        <v>87654</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>129085</v>
+        <v>129449</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03033521283320278</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02499124741601606</v>
+        <v>0.02532503808681167</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03729543823667718</v>
+        <v>0.03740054788187139</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>263</v>
@@ -7524,19 +7524,19 @@
         <v>278276</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>246461</v>
+        <v>247328</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>310907</v>
+        <v>317889</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.04071560576004178</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0360606525648153</v>
+        <v>0.03618747606298799</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04549001872673576</v>
+        <v>0.04651160012176773</v>
       </c>
     </row>
     <row r="47">
@@ -7553,19 +7553,19 @@
         <v>410865</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>372160</v>
+        <v>373448</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>448095</v>
+        <v>452526</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1217926268735632</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1103191775136094</v>
+        <v>0.1107010865892551</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1328285881286538</v>
+        <v>0.1341420145345989</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>262</v>
@@ -7574,19 +7574,19 @@
         <v>281985</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>248661</v>
+        <v>252280</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>316893</v>
+        <v>314030</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08147166519477718</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07184369910409009</v>
+        <v>0.0728892850167807</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.09155754238868699</v>
+        <v>0.09073009816742643</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>644</v>
@@ -7595,19 +7595,19 @@
         <v>692850</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>642863</v>
+        <v>640073</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>748556</v>
+        <v>748149</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1013735810273205</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09405981194080286</v>
+        <v>0.09365157603424079</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1095240223584985</v>
+        <v>0.1094644954932299</v>
       </c>
     </row>
     <row r="48">
@@ -7624,19 +7624,19 @@
         <v>535885</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>496915</v>
+        <v>491391</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>588511</v>
+        <v>582616</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1588519587830917</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1473003631776067</v>
+        <v>0.1456628720300902</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.17445196019586</v>
+        <v>0.1727044353446103</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>339</v>
@@ -7645,19 +7645,19 @@
         <v>374247</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>339872</v>
+        <v>335496</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>414762</v>
+        <v>415078</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1081281656248059</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.09819646393527434</v>
+        <v>0.09693226917604754</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.11983379950937</v>
+        <v>0.119925122248571</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>839</v>
@@ -7666,19 +7666,19 @@
         <v>910131</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>852699</v>
+        <v>853991</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>970660</v>
+        <v>973548</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1331647872754911</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1247616250861549</v>
+        <v>0.1249506781760194</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1420210499946269</v>
+        <v>0.1424435409152463</v>
       </c>
     </row>
     <row r="49">
@@ -7695,19 +7695,19 @@
         <v>920179</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>863116</v>
+        <v>869900</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>974640</v>
+        <v>976229</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2727680522716076</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2558528838018974</v>
+        <v>0.2578639316827458</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2889121096326754</v>
+        <v>0.2893831009208828</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>774</v>
@@ -7716,19 +7716,19 @@
         <v>825888</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>771343</v>
+        <v>772909</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>876614</v>
+        <v>874081</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2386173784179176</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2228580928297368</v>
+        <v>0.2233105483457972</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2532731804489626</v>
+        <v>0.2525412219079299</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1641</v>
@@ -7737,19 +7737,19 @@
         <v>1746067</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1674498</v>
+        <v>1673699</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1824447</v>
+        <v>1825705</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2554737183553246</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2450022714049578</v>
+        <v>0.2448853581245781</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2669417568583779</v>
+        <v>0.2671259452867608</v>
       </c>
     </row>
     <row r="50">
@@ -7766,19 +7766,19 @@
         <v>692153</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>645442</v>
+        <v>648348</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>742782</v>
+        <v>744287</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2051745397291881</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.191328094669776</v>
+        <v>0.1921894912236204</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2201824333202936</v>
+        <v>0.2206286738807325</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>876</v>
@@ -7787,19 +7787,19 @@
         <v>940152</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>884787</v>
+        <v>884447</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>991304</v>
+        <v>993781</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2716308095647346</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2556345680263484</v>
+        <v>0.2555363661858668</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2864096836014712</v>
+        <v>0.2871252506691523</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1527</v>
@@ -7808,19 +7808,19 @@
         <v>1632305</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1563112</v>
+        <v>1548995</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1706537</v>
+        <v>1698170</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2388288367509836</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2287048471712354</v>
+        <v>0.2266393553722514</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2496899775545008</v>
+        <v>0.2484657788688119</v>
       </c>
     </row>
     <row r="51">
@@ -7837,19 +7837,19 @@
         <v>641121</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>592964</v>
+        <v>592518</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>688615</v>
+        <v>691169</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1900471002390072</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1757718819063401</v>
+        <v>0.1756398085845873</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2041258063914567</v>
+        <v>0.2048829556718375</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>855</v>
@@ -7858,19 +7858,19 @@
         <v>933874</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>882454</v>
+        <v>882824</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>993278</v>
+        <v>984043</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.269816768364562</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.2549606251027371</v>
+        <v>0.2550673466897281</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.2869798707237664</v>
+        <v>0.2843119355308242</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>1454</v>
@@ -7879,19 +7879,19 @@
         <v>1574994</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>1501065</v>
+        <v>1504619</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>1646662</v>
+        <v>1651342</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.2304434708308384</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.2196265082633221</v>
+        <v>0.2201465265078995</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.2409294448584862</v>
+        <v>0.2416141450213782</v>
       </c>
     </row>
     <row r="52">
@@ -8225,19 +8225,19 @@
         <v>9450</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4969</v>
+        <v>4601</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17103</v>
+        <v>17070</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02218110617441164</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01166226493670129</v>
+        <v>0.01079865660357575</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04014262326478649</v>
+        <v>0.04006430494771625</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -8246,19 +8246,19 @@
         <v>3054</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8014</v>
+        <v>9040</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008821506283296501</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002681251584303194</v>
+        <v>0.002709772143596073</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02315089712885552</v>
+        <v>0.02611345503855799</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -8267,19 +8267,19 @@
         <v>12504</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7094</v>
+        <v>7120</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22013</v>
+        <v>21517</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01619232340468712</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009186010349638824</v>
+        <v>0.009220483364959687</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02850618612038189</v>
+        <v>0.02786302117810678</v>
       </c>
     </row>
     <row r="5">
@@ -8296,19 +8296,19 @@
         <v>37776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26346</v>
+        <v>26857</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51625</v>
+        <v>53096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08866475844892142</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06183648090146405</v>
+        <v>0.0630354107794168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1211691685190474</v>
+        <v>0.124622565897097</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -8317,19 +8317,19 @@
         <v>16944</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8778</v>
+        <v>10083</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27133</v>
+        <v>29533</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04894771149228638</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02535742921045521</v>
+        <v>0.02912685281964919</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07838112488570867</v>
+        <v>0.08531475969664867</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>47</v>
@@ -8338,19 +8338,19 @@
         <v>54720</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40000</v>
+        <v>40827</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73760</v>
+        <v>72881</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07086057505893656</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05179852010399059</v>
+        <v>0.05286896419384881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09551645316151322</v>
+        <v>0.0943781139804324</v>
       </c>
     </row>
     <row r="6">
@@ -8367,19 +8367,19 @@
         <v>55899</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43601</v>
+        <v>41853</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72075</v>
+        <v>70835</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1312010831640892</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1023369078911494</v>
+        <v>0.09823364972754893</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1691676393513591</v>
+        <v>0.1662570202623595</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -8388,19 +8388,19 @@
         <v>28817</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19888</v>
+        <v>19282</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40549</v>
+        <v>39826</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08324485104065997</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05745243845609332</v>
+        <v>0.05570119438944447</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1171360140260626</v>
+        <v>0.1150466602932766</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>79</v>
@@ -8409,19 +8409,19 @@
         <v>84716</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68833</v>
+        <v>65972</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>105736</v>
+        <v>101903</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1097034740303975</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08913575628079759</v>
+        <v>0.08543089889586752</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1369234077863893</v>
+        <v>0.1319600977569762</v>
       </c>
     </row>
     <row r="7">
@@ -8438,19 +8438,19 @@
         <v>152530</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>133052</v>
+        <v>133057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175008</v>
+        <v>172928</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3580054195814967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3122879815927662</v>
+        <v>0.3123003135381748</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4107626467370632</v>
+        <v>0.4058818074832887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>105</v>
@@ -8459,19 +8459,19 @@
         <v>108577</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92095</v>
+        <v>91199</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127276</v>
+        <v>125597</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.313653622387616</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2660383726432408</v>
+        <v>0.2634521632031598</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3676691554216285</v>
+        <v>0.3628194381366788</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>249</v>
@@ -8480,19 +8480,19 @@
         <v>261108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>233377</v>
+        <v>235922</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>286819</v>
+        <v>288985</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3381235907089362</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3022131677488935</v>
+        <v>0.3055084243545133</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3714178428964334</v>
+        <v>0.3742227930962115</v>
       </c>
     </row>
     <row r="8">
@@ -8509,19 +8509,19 @@
         <v>89297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74363</v>
+        <v>72664</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107565</v>
+        <v>107527</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2095907700681393</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1745375308777593</v>
+        <v>0.1705514894526464</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2524676647345042</v>
+        <v>0.2523780721764548</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>105</v>
@@ -8530,19 +8530,19 @@
         <v>107544</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91450</v>
+        <v>90515</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>125324</v>
+        <v>126277</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3106675834326954</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2641776193791152</v>
+        <v>0.2614747719484036</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3620315267475098</v>
+        <v>0.3647829510365398</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>188</v>
@@ -8551,19 +8551,19 @@
         <v>196841</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>174326</v>
+        <v>173619</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>223030</v>
+        <v>224244</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2549010400784628</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2257448513467118</v>
+        <v>0.2248291150996314</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2888141361329565</v>
+        <v>0.2903868354653818</v>
       </c>
     </row>
     <row r="9">
@@ -8580,19 +8580,19 @@
         <v>81103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>65136</v>
+        <v>64818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>98441</v>
+        <v>98973</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1903568625629418</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1528824130951973</v>
+        <v>0.152134909676387</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2310510554117483</v>
+        <v>0.2323013125169019</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>75</v>
@@ -8601,19 +8601,19 @@
         <v>81234</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>65878</v>
+        <v>65628</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100064</v>
+        <v>97983</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2346647253634457</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1903059062973452</v>
+        <v>0.1895830805161669</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.289061476748826</v>
+        <v>0.283048029669242</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>149</v>
@@ -8622,19 +8622,19 @@
         <v>162337</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>139728</v>
+        <v>140545</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>186206</v>
+        <v>186895</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2102189967185798</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1809423079272089</v>
+        <v>0.1820004352813551</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.241128946662215</v>
+        <v>0.2420208115499911</v>
       </c>
     </row>
     <row r="10">
@@ -8726,19 +8726,19 @@
         <v>13797</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7479</v>
+        <v>7808</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23121</v>
+        <v>22949</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.037263214820039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02020056756140661</v>
+        <v>0.02108742934182782</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06244421832260696</v>
+        <v>0.0619819027473494</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -8747,19 +8747,19 @@
         <v>6714</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2977</v>
+        <v>2505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13600</v>
+        <v>14114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01813665011691615</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00804116932240624</v>
+        <v>0.006765542353269876</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03673794826267533</v>
+        <v>0.03812741683276259</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -8768,19 +8768,19 @@
         <v>20511</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12423</v>
+        <v>12473</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31788</v>
+        <v>31993</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02770087868472935</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01677743694179754</v>
+        <v>0.01684585563007971</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04293049717197474</v>
+        <v>0.04320769992816399</v>
       </c>
     </row>
     <row r="12">
@@ -8797,19 +8797,19 @@
         <v>25261</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17644</v>
+        <v>17426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>37972</v>
+        <v>38338</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06822505525917676</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04765311961939461</v>
+        <v>0.047064262549773</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1025547187618901</v>
+        <v>0.1035428042710349</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -8818,19 +8818,19 @@
         <v>23953</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15754</v>
+        <v>15532</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35594</v>
+        <v>34569</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0647042922541364</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04255778321789839</v>
+        <v>0.04195807602721929</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09615221699471395</v>
+        <v>0.0933814684469102</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>46</v>
@@ -8839,19 +8839,19 @@
         <v>49214</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35949</v>
+        <v>36817</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64234</v>
+        <v>65994</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06646484793342203</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0485496863112439</v>
+        <v>0.04972301297240465</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08675057408667966</v>
+        <v>0.0891269543698468</v>
       </c>
     </row>
     <row r="13">
@@ -8868,19 +8868,19 @@
         <v>58686</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44773</v>
+        <v>45448</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75761</v>
+        <v>75066</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.158499581816142</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1209216328583931</v>
+        <v>0.122746264113032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2046157240880803</v>
+        <v>0.2027387089895273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -8889,7 +8889,7 @@
         <v>42676</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30847</v>
+        <v>31332</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>56545</v>
@@ -8898,10 +8898,10 @@
         <v>0.1152813120904816</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08332747516150793</v>
+        <v>0.08463734944029702</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1527467024788989</v>
+        <v>0.1527461417138467</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>94</v>
@@ -8910,19 +8910,19 @@
         <v>101362</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83485</v>
+        <v>82514</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123261</v>
+        <v>119461</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1368925850178217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1127490935961567</v>
+        <v>0.1114383185002843</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1664677542858241</v>
+        <v>0.1613364664632472</v>
       </c>
     </row>
     <row r="14">
@@ -8939,19 +8939,19 @@
         <v>122080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102413</v>
+        <v>103830</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>140008</v>
+        <v>140402</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3297126196747988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2765972399665012</v>
+        <v>0.2804234258663962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3781344971962523</v>
+        <v>0.3791969260552019</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>127</v>
@@ -8960,19 +8960,19 @@
         <v>132586</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113840</v>
+        <v>114373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>152015</v>
+        <v>152962</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3581576568320632</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3075192877712025</v>
+        <v>0.3089603852182226</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4106421648389476</v>
+        <v>0.4132003398559809</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>245</v>
@@ -8981,19 +8981,19 @@
         <v>254665</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>226585</v>
+        <v>228242</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>282699</v>
+        <v>280174</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3439337310401201</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3060100974157886</v>
+        <v>0.3082479200860164</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3817942381619004</v>
+        <v>0.3783840760459477</v>
       </c>
     </row>
     <row r="15">
@@ -9010,19 +9010,19 @@
         <v>89988</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>73548</v>
+        <v>74855</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>109295</v>
+        <v>109446</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2430399087269959</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1986384613705817</v>
+        <v>0.2021686710139734</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2951827410265891</v>
+        <v>0.2955911963325624</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>78</v>
@@ -9031,19 +9031,19 @@
         <v>82189</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>66124</v>
+        <v>66370</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>100483</v>
+        <v>99066</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2220203925335894</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1786229576464704</v>
+        <v>0.1792861666635455</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2714370334703655</v>
+        <v>0.2676093896933247</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>164</v>
@@ -9052,19 +9052,19 @@
         <v>172177</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>148900</v>
+        <v>150996</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>198972</v>
+        <v>194469</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2325311904933384</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.201093698030522</v>
+        <v>0.2039243658877483</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2687178811151046</v>
+        <v>0.2626368007645624</v>
       </c>
     </row>
     <row r="16">
@@ -9081,19 +9081,19 @@
         <v>60449</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47962</v>
+        <v>46638</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77709</v>
+        <v>76315</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1632596197028476</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1295347547928543</v>
+        <v>0.12595904298472</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.209877451012579</v>
+        <v>0.2061106623060386</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -9102,19 +9102,19 @@
         <v>82071</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64100</v>
+        <v>68655</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97869</v>
+        <v>98379</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2216996961728132</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.173155666478907</v>
+        <v>0.1854599909698264</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2643765756577751</v>
+        <v>0.2657533959647876</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>131</v>
@@ -9123,19 +9123,19 @@
         <v>142519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>118911</v>
+        <v>122531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>164544</v>
+        <v>166392</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1924767668305683</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1605931096524313</v>
+        <v>0.1654820163432093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2222219744392094</v>
+        <v>0.2247172087982568</v>
       </c>
     </row>
     <row r="17">
@@ -9227,19 +9227,19 @@
         <v>29849</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20224</v>
+        <v>20009</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42679</v>
+        <v>41627</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0581811477811412</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03942057055047402</v>
+        <v>0.03900057635052145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08318719110602504</v>
+        <v>0.08113713783795931</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -9261,19 +9261,19 @@
         <v>29849</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>19868</v>
+        <v>20428</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>42192</v>
+        <v>43273</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04400853458455271</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02929179560781471</v>
+        <v>0.03011789559801016</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06220631693934665</v>
+        <v>0.06379907648680509</v>
       </c>
     </row>
     <row r="19">
@@ -9290,19 +9290,19 @@
         <v>38699</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27510</v>
+        <v>27880</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53735</v>
+        <v>53189</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07543121455453303</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05362103885833038</v>
+        <v>0.05434216815148753</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.104737904975079</v>
+        <v>0.1036733268989164</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -9311,19 +9311,19 @@
         <v>7594</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2933</v>
+        <v>3035</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15944</v>
+        <v>14371</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04595990517585322</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01775332915868347</v>
+        <v>0.01836866466212476</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09649909179774348</v>
+        <v>0.08698277434403638</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -9332,19 +9332,19 @@
         <v>46293</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33668</v>
+        <v>34952</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60070</v>
+        <v>62904</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06825216284877744</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04963922257569742</v>
+        <v>0.05153110278527779</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08856406481928243</v>
+        <v>0.09274260993698415</v>
       </c>
     </row>
     <row r="20">
@@ -9361,19 +9361,19 @@
         <v>93312</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>77251</v>
+        <v>77000</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>112166</v>
+        <v>109606</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1818795666596069</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1505746611954278</v>
+        <v>0.1500857124842943</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2186301065718255</v>
+        <v>0.2136403578090095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -9382,19 +9382,19 @@
         <v>20152</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12627</v>
+        <v>12218</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30033</v>
+        <v>30896</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1219704665744091</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07642646202483414</v>
+        <v>0.0739486071403848</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1817735209489944</v>
+        <v>0.1869978956385669</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>113</v>
@@ -9403,19 +9403,19 @@
         <v>113464</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95125</v>
+        <v>93587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>133682</v>
+        <v>135381</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1672860336193661</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1402472267117672</v>
+        <v>0.1379806127531201</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1970952889877154</v>
+        <v>0.1995991783241162</v>
       </c>
     </row>
     <row r="21">
@@ -9432,19 +9432,19 @@
         <v>155908</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>136372</v>
+        <v>136093</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>176711</v>
+        <v>176533</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3038897417931206</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2658113598007918</v>
+        <v>0.2652667795009165</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3444369925716995</v>
+        <v>0.3440912642099102</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>54</v>
@@ -9453,19 +9453,19 @@
         <v>58942</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>47225</v>
+        <v>47236</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>72986</v>
+        <v>71606</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3567454316981952</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2858296755579364</v>
+        <v>0.2858942612553652</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4417462150451986</v>
+        <v>0.433396833528349</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>205</v>
@@ -9474,19 +9474,19 @@
         <v>214850</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>190985</v>
+        <v>189556</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>241761</v>
+        <v>240743</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3167651022291391</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2815797485523406</v>
+        <v>0.2794727000440421</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3564412568985539</v>
+        <v>0.3549406678669278</v>
       </c>
     </row>
     <row r="22">
@@ -9503,19 +9503,19 @@
         <v>128403</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>108958</v>
+        <v>108367</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>150387</v>
+        <v>149701</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2502781245063834</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2123767345611167</v>
+        <v>0.2112235305323167</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2931276286442408</v>
+        <v>0.2917913297307314</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -9524,19 +9524,19 @@
         <v>45269</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33809</v>
+        <v>34377</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>57513</v>
+        <v>58903</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.273992600459908</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2046260118482525</v>
+        <v>0.2080640518956124</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3480944276300967</v>
+        <v>0.3565130007826024</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>163</v>
@@ -9545,19 +9545,19 @@
         <v>173673</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>150939</v>
+        <v>151295</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>198782</v>
+        <v>197733</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2560548426989049</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2225376232486833</v>
+        <v>0.2230629044748768</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2930749077493201</v>
+        <v>0.2915281775263804</v>
       </c>
     </row>
     <row r="23">
@@ -9574,19 +9574,19 @@
         <v>66870</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>51160</v>
+        <v>52481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>83630</v>
+        <v>85778</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1303402047052148</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09971878504576173</v>
+        <v>0.1022934196550221</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1630072205301371</v>
+        <v>0.1671956877122336</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -9595,19 +9595,19 @@
         <v>33264</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23247</v>
+        <v>23774</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>44155</v>
+        <v>45255</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2013315960916346</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1406996544233157</v>
+        <v>0.1438919792603947</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2672478396238495</v>
+        <v>0.2739051749737011</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>95</v>
@@ -9616,19 +9616,19 @@
         <v>100134</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>82040</v>
+        <v>81719</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>121348</v>
+        <v>119928</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1476333240192597</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1209553612136081</v>
+        <v>0.12048207131279</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1789099365851841</v>
+        <v>0.1768168281434598</v>
       </c>
     </row>
     <row r="24">
@@ -9720,19 +9720,19 @@
         <v>62910</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>47836</v>
+        <v>48588</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>79510</v>
+        <v>80398</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05533608817086701</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0420771879717339</v>
+        <v>0.04273831044285153</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06993792607418887</v>
+        <v>0.07071868709887662</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -9741,19 +9741,19 @@
         <v>11146</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5955</v>
+        <v>5940</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18659</v>
+        <v>20486</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01358951420060253</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00726029837477092</v>
+        <v>0.007241589337146808</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0227489889203087</v>
+        <v>0.02497674483390022</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -9762,19 +9762,19 @@
         <v>74056</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57723</v>
+        <v>57818</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95254</v>
+        <v>94474</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03784017918744693</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0294945392309423</v>
+        <v>0.02954320237505675</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04867173593835791</v>
+        <v>0.04827282453873085</v>
       </c>
     </row>
     <row r="26">
@@ -9791,19 +9791,19 @@
         <v>113066</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>92831</v>
+        <v>93656</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>133656</v>
+        <v>135222</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09945375584831252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08165448341119128</v>
+        <v>0.08238071462727853</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1175646207008368</v>
+        <v>0.1189425681428087</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>55</v>
@@ -9812,19 +9812,19 @@
         <v>57268</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44531</v>
+        <v>43491</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73727</v>
+        <v>73770</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06982088628874203</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05429289444993442</v>
+        <v>0.05302459250020446</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08988814889378866</v>
+        <v>0.08994099703040807</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>162</v>
@@ -9833,19 +9833,19 @@
         <v>170334</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>146166</v>
+        <v>146862</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>197171</v>
+        <v>197963</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08703467712101162</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0746855519300581</v>
+        <v>0.07504149847375101</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1007476912062752</v>
+        <v>0.1011523571195675</v>
       </c>
     </row>
     <row r="27">
@@ -9862,19 +9862,19 @@
         <v>217419</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>190037</v>
+        <v>191314</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>245795</v>
+        <v>243281</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1912436883937121</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1671574884830099</v>
+        <v>0.1682811135081734</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2162034948710887</v>
+        <v>0.2139913439266666</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>82</v>
@@ -9883,19 +9883,19 @@
         <v>82547</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>67776</v>
+        <v>66648</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>102289</v>
+        <v>103062</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1006415040482495</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08263228653846716</v>
+        <v>0.08125686366132664</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1247115043024098</v>
+        <v>0.1256529471996765</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>291</v>
@@ -9904,19 +9904,19 @@
         <v>299966</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>268498</v>
+        <v>273309</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>335110</v>
+        <v>334649</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1532724869213145</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1371934530393639</v>
+        <v>0.139651518528147</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1712297204822567</v>
+        <v>0.1709942628395079</v>
       </c>
     </row>
     <row r="28">
@@ -9933,19 +9933,19 @@
         <v>342859</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>314179</v>
+        <v>313086</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>373059</v>
+        <v>373815</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3015808318099378</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2763545283597427</v>
+        <v>0.2753926909440194</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3281456964782789</v>
+        <v>0.3288102090287048</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>250</v>
@@ -9954,19 +9954,19 @@
         <v>258474</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>233230</v>
+        <v>229935</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>285305</v>
+        <v>285485</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3151325024287825</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2843546711933236</v>
+        <v>0.2803372752298899</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3478443421270963</v>
+        <v>0.3480644413057998</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>580</v>
@@ -9975,19 +9975,19 @@
         <v>601333</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>561652</v>
+        <v>561139</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>640401</v>
+        <v>642803</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3072603109425123</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2869850035655584</v>
+        <v>0.2867226414414901</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3272230584497965</v>
+        <v>0.3284501078968574</v>
       </c>
     </row>
     <row r="29">
@@ -10004,19 +10004,19 @@
         <v>217315</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>192071</v>
+        <v>192974</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>244974</v>
+        <v>242225</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.19115171933001</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1689466775994287</v>
+        <v>0.1697414657056715</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2154813124673358</v>
+        <v>0.2130626181158284</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>207</v>
@@ -10025,19 +10025,19 @@
         <v>209205</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>184680</v>
+        <v>183260</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>235698</v>
+        <v>235236</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2550638440945854</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2251617947239446</v>
+        <v>0.2234317200874841</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2873636169872058</v>
+        <v>0.2867999586301991</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>420</v>
@@ -10046,19 +10046,19 @@
         <v>426520</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>391364</v>
+        <v>390137</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>460672</v>
+        <v>464499</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.217937168085984</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1999737668802982</v>
+        <v>0.199346516797682</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2353873594007239</v>
+        <v>0.2373429675743435</v>
       </c>
     </row>
     <row r="30">
@@ -10075,19 +10075,19 @@
         <v>183302</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>159029</v>
+        <v>158678</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>207408</v>
+        <v>209950</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1612339164471606</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1398830546226633</v>
+        <v>0.1395743880145887</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1824373509680885</v>
+        <v>0.1846736604099761</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>188</v>
@@ -10096,19 +10096,19 @@
         <v>201568</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>177047</v>
+        <v>176239</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>226535</v>
+        <v>226342</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.245751748939038</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2158557470140188</v>
+        <v>0.2148708143319347</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2761925042479043</v>
+        <v>0.2759573390112187</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>361</v>
@@ -10117,19 +10117,19 @@
         <v>384870</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>351228</v>
+        <v>349317</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>424020</v>
+        <v>422511</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1966551777417306</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1794654738252475</v>
+        <v>0.1784890596742395</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2166593919086759</v>
+        <v>0.2158887581598926</v>
       </c>
     </row>
     <row r="31">
@@ -10221,19 +10221,19 @@
         <v>41315</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30189</v>
+        <v>28224</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>56727</v>
+        <v>57013</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06738241087000352</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04923673641046004</v>
+        <v>0.04603140165703738</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09251855236780081</v>
+        <v>0.09298460547558358</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -10242,19 +10242,19 @@
         <v>29536</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>19500</v>
+        <v>19407</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>40929</v>
+        <v>41673</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.04023222027591616</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02656180554507566</v>
+        <v>0.02643436683708184</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05575046445992254</v>
+        <v>0.05676410491006069</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>64</v>
@@ -10263,19 +10263,19 @@
         <v>70851</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>54486</v>
+        <v>54787</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>91332</v>
+        <v>89234</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05258819314665732</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04044099786018151</v>
+        <v>0.04066460891559245</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06778982207059815</v>
+        <v>0.06623212424028208</v>
       </c>
     </row>
     <row r="33">
@@ -10292,19 +10292,19 @@
         <v>78499</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>63649</v>
+        <v>63048</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>96713</v>
+        <v>95214</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1280264944278698</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1038066729923629</v>
+        <v>0.1028265635792952</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1577313850149283</v>
+        <v>0.1552871410564799</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>43</v>
@@ -10313,19 +10313,19 @@
         <v>46143</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>33239</v>
+        <v>33521</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>61740</v>
+        <v>62883</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06285249984483085</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04527603136908048</v>
+        <v>0.04566000598970867</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08409827947375136</v>
+        <v>0.08565492787336283</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>120</v>
@@ -10334,19 +10334,19 @@
         <v>124642</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>104309</v>
+        <v>104503</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>147727</v>
+        <v>145405</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.09251299545554058</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0774216900126705</v>
+        <v>0.07756531499302211</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1096478297768517</v>
+        <v>0.1079242361259602</v>
       </c>
     </row>
     <row r="34">
@@ -10363,19 +10363,19 @@
         <v>134006</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>115135</v>
+        <v>114578</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>155322</v>
+        <v>156712</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2185551939812424</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1877770659894839</v>
+        <v>0.1868683248008544</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2533191232396299</v>
+        <v>0.2555870374437693</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>84</v>
@@ -10384,19 +10384,19 @@
         <v>86823</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>71551</v>
+        <v>69967</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>105462</v>
+        <v>106818</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1182641723273587</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09746258308961468</v>
+        <v>0.09530490118922749</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1436531833941656</v>
+        <v>0.145500662465516</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>216</v>
@@ -10405,19 +10405,19 @@
         <v>220829</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>193173</v>
+        <v>194100</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>251649</v>
+        <v>247891</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1639063249465071</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1433789559289199</v>
+        <v>0.1440673097311535</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1867819562444869</v>
+        <v>0.1839926016353118</v>
       </c>
     </row>
     <row r="35">
@@ -10434,19 +10434,19 @@
         <v>164189</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>143151</v>
+        <v>144512</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>186819</v>
+        <v>189926</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2677809654518938</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2334701055692338</v>
+        <v>0.2356893509049799</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3046880129478451</v>
+        <v>0.3097553373827377</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>207</v>
@@ -10455,19 +10455,19 @@
         <v>215041</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>190534</v>
+        <v>191237</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>243198</v>
+        <v>243312</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2929148985775066</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2595335518990363</v>
+        <v>0.2604908943899145</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3312691383670846</v>
+        <v>0.3314234787466687</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>366</v>
@@ -10476,19 +10476,19 @@
         <v>379230</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>348242</v>
+        <v>344433</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>417755</v>
+        <v>413335</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.281476518623639</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2584761396329358</v>
+        <v>0.2556491249056647</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3100710830229428</v>
+        <v>0.3067902084305449</v>
       </c>
     </row>
     <row r="36">
@@ -10505,19 +10505,19 @@
         <v>102373</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>82935</v>
+        <v>83063</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>121463</v>
+        <v>121176</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1669636990072381</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1352605827478536</v>
+        <v>0.1354705785072593</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1980975440833079</v>
+        <v>0.1976297385105811</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>205</v>
@@ -10526,19 +10526,19 @@
         <v>219765</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>194942</v>
+        <v>195302</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>246046</v>
+        <v>245200</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2993502468127273</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2655371357702807</v>
+        <v>0.2660284883304996</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3351485408414081</v>
+        <v>0.3339957428551021</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>304</v>
@@ -10547,19 +10547,19 @@
         <v>322139</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>289731</v>
+        <v>289501</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>354685</v>
+        <v>352116</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2391015134763237</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.215047568034582</v>
+        <v>0.2148768803537607</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2632585871676802</v>
+        <v>0.2613515411496977</v>
       </c>
     </row>
     <row r="37">
@@ -10576,19 +10576,19 @@
         <v>92764</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>74049</v>
+        <v>75812</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>112008</v>
+        <v>112045</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1512912362617524</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1207681557308849</v>
+        <v>0.1236440915097257</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1826765520268367</v>
+        <v>0.1827370109419973</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>128</v>
@@ -10597,19 +10597,19 @@
         <v>136834</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>117336</v>
+        <v>114926</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>160132</v>
+        <v>159624</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1863859621616604</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1598271287450879</v>
+        <v>0.1565443617260595</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2181217264451943</v>
+        <v>0.2174299803800736</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>215</v>
@@ -10618,19 +10618,19 @@
         <v>229597</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>201261</v>
+        <v>201009</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>259442</v>
+        <v>259133</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1704144543513324</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.149382432998898</v>
+        <v>0.1491953411997212</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1925658953336132</v>
+        <v>0.1923367819393365</v>
       </c>
     </row>
     <row r="38">
@@ -10722,19 +10722,19 @@
         <v>5298</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>12552</v>
+        <v>12093</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01870271809790399</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.007191549166225523</v>
+        <v>0.007165832412760711</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04430588082164621</v>
+        <v>0.04268661421872032</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>26</v>
@@ -10743,19 +10743,19 @@
         <v>27196</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>18421</v>
+        <v>18614</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>38802</v>
+        <v>38510</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02544739256497171</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01723652757826092</v>
+        <v>0.01741704128316224</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03630815861467793</v>
+        <v>0.03603499605189615</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>31</v>
@@ -10764,19 +10764,19 @@
         <v>32494</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>22916</v>
+        <v>22176</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>45912</v>
+        <v>44562</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02403412699906143</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01694989243725851</v>
+        <v>0.0164022934268831</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03395906034149608</v>
+        <v>0.03296009166262253</v>
       </c>
     </row>
     <row r="40">
@@ -10793,19 +10793,19 @@
         <v>24547</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>15844</v>
+        <v>16351</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>34862</v>
+        <v>37164</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08664834028020854</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05592798391254492</v>
+        <v>0.05771937956556487</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1230585180750254</v>
+        <v>0.1311855937690089</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>37</v>
@@ -10814,19 +10814,19 @@
         <v>39376</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>28175</v>
+        <v>27960</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>53694</v>
+        <v>52891</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03684490631365541</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02636369296477479</v>
+        <v>0.02616277920404262</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05024260725732221</v>
+        <v>0.04949078045449703</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>60</v>
@@ -10835,19 +10835,19 @@
         <v>63923</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>48281</v>
+        <v>51011</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>80934</v>
+        <v>83545</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04728061801963734</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03571105941584977</v>
+        <v>0.03773028357495564</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0598625550048545</v>
+        <v>0.06179401395038624</v>
       </c>
     </row>
     <row r="41">
@@ -10864,19 +10864,19 @@
         <v>48938</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>38029</v>
+        <v>37634</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>65167</v>
+        <v>62743</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1727467742617421</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.134237742326685</v>
+        <v>0.1328436542948399</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2300351402141598</v>
+        <v>0.2214780213394845</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>93</v>
@@ -10885,19 +10885,19 @@
         <v>101587</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>84293</v>
+        <v>82336</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>123539</v>
+        <v>120619</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09505703205940454</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07887501237799566</v>
+        <v>0.07704338038971718</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.115598164502348</v>
+        <v>0.1128658651193904</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>138</v>
@@ -10906,19 +10906,19 @@
         <v>150525</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>128546</v>
+        <v>125686</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>176611</v>
+        <v>174308</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1113359848858328</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09507903942220497</v>
+        <v>0.09296357365119853</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1306303172552665</v>
+        <v>0.1289272864293655</v>
       </c>
     </row>
     <row r="42">
@@ -10935,19 +10935,19 @@
         <v>92841</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>76546</v>
+        <v>76026</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>107914</v>
+        <v>109541</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3277202335938949</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2702000505059992</v>
+        <v>0.2683650882860917</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.380927581816231</v>
+        <v>0.38667114904608</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>299</v>
@@ -10956,19 +10956,19 @@
         <v>322096</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>290763</v>
+        <v>292412</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>354437</v>
+        <v>354562</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3013916478565336</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2720728458879803</v>
+        <v>0.273615969308919</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3316538310310714</v>
+        <v>0.3317703415144064</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>388</v>
@@ -10977,19 +10977,19 @@
         <v>414937</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>380673</v>
+        <v>380692</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>449659</v>
+        <v>451317</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3069084869276276</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2815653342548493</v>
+        <v>0.2815791967505924</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3325904788702013</v>
+        <v>0.3338172201984012</v>
       </c>
     </row>
     <row r="43">
@@ -11006,19 +11006,19 @@
         <v>61370</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>48978</v>
+        <v>48667</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>76641</v>
+        <v>76954</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2166319006376178</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.172888261300843</v>
+        <v>0.1717901094256004</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2705344081358835</v>
+        <v>0.2716400164406636</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>273</v>
@@ -11027,19 +11027,19 @@
         <v>298402</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>269273</v>
+        <v>269820</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>327528</v>
+        <v>330993</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2792203717065967</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2519636952307858</v>
+        <v>0.2524757703077411</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3064747648326117</v>
+        <v>0.3097171057502068</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>332</v>
@@ -11048,19 +11048,19 @@
         <v>359772</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>327136</v>
+        <v>325078</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>396073</v>
+        <v>392114</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2661057089579859</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2419662067802138</v>
+        <v>0.2404440501317266</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2929558445187693</v>
+        <v>0.290027453078904</v>
       </c>
     </row>
     <row r="44">
@@ -11077,19 +11077,19 @@
         <v>50299</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>39532</v>
+        <v>38945</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>65037</v>
+        <v>66064</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1775500331286327</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1395454471786958</v>
+        <v>0.1374714440505398</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2295767561284898</v>
+        <v>0.2332019762111241</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>252</v>
@@ -11098,19 +11098,19 @@
         <v>280040</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>251561</v>
+        <v>248394</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>309331</v>
+        <v>311194</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.262038649498838</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.235390634299413</v>
+        <v>0.2324268074469315</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2894468928525663</v>
+        <v>0.2911904973794993</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>300</v>
@@ -11119,19 +11119,19 @@
         <v>330338</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>296194</v>
+        <v>296473</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>362690</v>
+        <v>362920</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.244335074209855</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2190800810822447</v>
+        <v>0.2192866640217954</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2682643365073851</v>
+        <v>0.2684341190640621</v>
       </c>
     </row>
     <row r="45">
@@ -11223,19 +11223,19 @@
         <v>162620</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>138646</v>
+        <v>137483</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>188278</v>
+        <v>191253</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.04864989400129169</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0414775599997306</v>
+        <v>0.04112979496033946</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05632564915353983</v>
+        <v>0.05721558000989446</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>74</v>
@@ -11244,19 +11244,19 @@
         <v>77646</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>61151</v>
+        <v>63123</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>98168</v>
+        <v>97084</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02215518276097797</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01744875899763492</v>
+        <v>0.01801141239822405</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02801094225635187</v>
+        <v>0.02770164340477364</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>222</v>
@@ -11265,19 +11265,19 @@
         <v>240266</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>209228</v>
+        <v>209613</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>272417</v>
+        <v>273373</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0350892068954409</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.03055629220972323</v>
+        <v>0.03061254861482466</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03978466879301599</v>
+        <v>0.03992428581338799</v>
       </c>
     </row>
     <row r="47">
@@ -11294,19 +11294,19 @@
         <v>317849</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>284113</v>
+        <v>284492</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>354027</v>
+        <v>353152</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09508824418334842</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08499582582940396</v>
+        <v>0.08510930689919358</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1059115972739774</v>
+        <v>0.1056496098868423</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>179</v>
@@ -11315,19 +11315,19 @@
         <v>191277</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>166172</v>
+        <v>163726</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>221555</v>
+        <v>221090</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05457839922377518</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.04741500977779226</v>
+        <v>0.0467171087105884</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06321787044944026</v>
+        <v>0.06308509799922379</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>477</v>
@@ -11336,19 +11336,19 @@
         <v>509125</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>466877</v>
+        <v>464097</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>556242</v>
+        <v>553924</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.07435424458544246</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.06818411513464975</v>
+        <v>0.06777823130034347</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08123530862852313</v>
+        <v>0.080896717719198</v>
       </c>
     </row>
     <row r="48">
@@ -11365,19 +11365,19 @@
         <v>608261</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>565058</v>
+        <v>568105</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>654034</v>
+        <v>658136</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1819685744318206</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1690439251065492</v>
+        <v>0.1699555909542038</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1956622080765982</v>
+        <v>0.1968892879594483</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>346</v>
@@ -11386,19 +11386,19 @@
         <v>362601</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>324379</v>
+        <v>325586</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>407045</v>
+        <v>399722</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.103463688830302</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.09255738075788626</v>
+        <v>0.09290181024155826</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1161452177938666</v>
+        <v>0.1140554933016815</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>931</v>
@@ -11407,19 +11407,19 @@
         <v>970862</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>914559</v>
+        <v>911270</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1030646</v>
+        <v>1031976</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1417877179481702</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1335649931032664</v>
+        <v>0.1330846634814624</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1505187847808353</v>
+        <v>0.1507129586740807</v>
       </c>
     </row>
     <row r="49">
@@ -11436,19 +11436,19 @@
         <v>1030406</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>976802</v>
+        <v>978953</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1083326</v>
+        <v>1086057</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.308258587368081</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2922221393108404</v>
+        <v>0.2928656895106092</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.324090033967131</v>
+        <v>0.3249070439044706</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1042</v>
@@ -11457,19 +11457,19 @@
         <v>1095716</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1040102</v>
+        <v>1041216</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1154848</v>
+        <v>1149552</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3126486792168933</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2967798134520349</v>
+        <v>0.297097643092253</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3295211301558278</v>
+        <v>0.3280101190107643</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2033</v>
@@ -11478,19 +11478,19 @@
         <v>2126122</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>2053475</v>
+        <v>2043570</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2205348</v>
+        <v>2200603</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3105055513522404</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2998959541118455</v>
+        <v>0.2984492696844288</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3220759416054382</v>
+        <v>0.3213828922535932</v>
       </c>
     </row>
     <row r="50">
@@ -11507,19 +11507,19 @@
         <v>688747</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>641394</v>
+        <v>641726</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>734064</v>
+        <v>737004</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2060470350645661</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1918806763602149</v>
+        <v>0.1919800205025688</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2196040667810899</v>
+        <v>0.2204837870449514</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>909</v>
@@ -11528,19 +11528,19 @@
         <v>962375</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>906773</v>
+        <v>909426</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1018872</v>
+        <v>1020548</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2746014421086673</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.258736153471666</v>
+        <v>0.2594930347261275</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2907221847300598</v>
+        <v>0.2912004089609108</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1571</v>
@@ -11549,19 +11549,19 @@
         <v>1651122</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1582041</v>
+        <v>1580469</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1726448</v>
+        <v>1722135</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2411349760207847</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2310461530175345</v>
+        <v>0.2308166059789233</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2521358055995628</v>
+        <v>0.2515059822477758</v>
       </c>
     </row>
     <row r="51">
@@ -11578,19 +11578,19 @@
         <v>534786</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>496166</v>
+        <v>492205</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>583300</v>
+        <v>579884</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1599876649508923</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1484339535148445</v>
+        <v>0.14724899812378</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1745013481780536</v>
+        <v>0.1734793883625027</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>751</v>
@@ -11599,19 +11599,19 @@
         <v>815009</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>769007</v>
+        <v>765724</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>868359</v>
+        <v>863849</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.2325526078593844</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.2194264499222755</v>
+        <v>0.2184897227128458</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.2477753223407023</v>
+        <v>0.2464884070502025</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>1251</v>
@@ -11620,19 +11620,19 @@
         <v>1349795</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>1275441</v>
+        <v>1284221</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>1421459</v>
+        <v>1422402</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.1971283031979214</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.1862693907150584</v>
+        <v>0.1875516927818437</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.2075943123716203</v>
+        <v>0.2077320101904248</v>
       </c>
     </row>
     <row r="52">
